--- a/data/negative_signals/Indirectly connected (A-X-B) - Terazosin - liver failure, acute.xlsx
+++ b/data/negative_signals/Indirectly connected (A-X-B) - Terazosin - liver failure, acute.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="629">
   <si>
     <t>pathWeight</t>
   </si>
@@ -173,163 +173,1678 @@
     <t>Chemicals &amp; Drugs</t>
   </si>
   <si>
+    <t>4048979</t>
+  </si>
+  <si>
+    <t>mus</t>
+  </si>
+  <si>
+    <t>Living Beings</t>
+  </si>
+  <si>
+    <t>363448</t>
+  </si>
+  <si>
+    <t>liver failure, acute</t>
+  </si>
+  <si>
+    <t>Disorders</t>
+  </si>
+  <si>
+    <t>78370986</t>
+  </si>
+  <si>
+    <t>treats</t>
+  </si>
+  <si>
+    <t>65748301</t>
+  </si>
+  <si>
+    <t>is administered to</t>
+  </si>
+  <si>
+    <t>51293379</t>
+  </si>
+  <si>
+    <t>is process of</t>
+  </si>
+  <si>
+    <t>307661</t>
+  </si>
+  <si>
+    <t>animals</t>
+  </si>
+  <si>
+    <t>80852478</t>
+  </si>
+  <si>
+    <t>72217329</t>
+  </si>
+  <si>
+    <t>is location of</t>
+  </si>
+  <si>
+    <t>51774338</t>
+  </si>
+  <si>
+    <t>816241</t>
+  </si>
+  <si>
+    <t>canis familiaris</t>
+  </si>
+  <si>
+    <t>59112789</t>
+  </si>
+  <si>
+    <t>52116700</t>
+  </si>
+  <si>
+    <t>477234</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>82641664</t>
+  </si>
+  <si>
+    <t>stimulates</t>
+  </si>
+  <si>
+    <t>14441562</t>
+  </si>
+  <si>
+    <t>indicates</t>
+  </si>
+  <si>
+    <t>3772078</t>
+  </si>
+  <si>
+    <t>hepatotoxicity</t>
+  </si>
+  <si>
+    <t>121933068</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>63431146</t>
+  </si>
+  <si>
+    <t>81287471</t>
+  </si>
+  <si>
+    <t>is manifestation of</t>
+  </si>
+  <si>
+    <t>87678901</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>129819400</t>
+  </si>
+  <si>
+    <t>760841</t>
+  </si>
+  <si>
+    <t>domestic rabbit</t>
+  </si>
+  <si>
+    <t>80852384</t>
+  </si>
+  <si>
+    <t>72217565</t>
+  </si>
+  <si>
+    <t>55359520</t>
+  </si>
+  <si>
+    <t>4033909</t>
+  </si>
+  <si>
+    <t>edema</t>
+  </si>
+  <si>
+    <t>16550695</t>
+  </si>
+  <si>
+    <t>51495163</t>
+  </si>
+  <si>
+    <t>87846369</t>
+  </si>
+  <si>
+    <t>92052142</t>
+  </si>
+  <si>
+    <t>40115766</t>
+  </si>
+  <si>
+    <t>2792624</t>
+  </si>
+  <si>
+    <t>bcl2 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>Genes &amp; Molecular Sequences</t>
+  </si>
+  <si>
+    <t>19216462</t>
+  </si>
+  <si>
+    <t>inhibits</t>
+  </si>
+  <si>
+    <t>28606406</t>
+  </si>
+  <si>
+    <t>gene product is biomarker type</t>
+  </si>
+  <si>
+    <t>4027653</t>
+  </si>
+  <si>
+    <t>patients</t>
+  </si>
+  <si>
+    <t>65750486</t>
+  </si>
+  <si>
+    <t>affects</t>
+  </si>
+  <si>
+    <t>53948396</t>
+  </si>
+  <si>
+    <t>51555224</t>
+  </si>
+  <si>
+    <t>57386901</t>
+  </si>
+  <si>
+    <t>occurs in</t>
+  </si>
+  <si>
+    <t>66993624</t>
+  </si>
+  <si>
+    <t>77416533</t>
+  </si>
+  <si>
+    <t>does not occur in</t>
+  </si>
+  <si>
+    <t>73678161</t>
+  </si>
+  <si>
+    <t>is not process of</t>
+  </si>
+  <si>
+    <t>51287051</t>
+  </si>
+  <si>
+    <t>4041077</t>
+  </si>
+  <si>
+    <t>enalapril</t>
+  </si>
+  <si>
+    <t>77583360</t>
+  </si>
+  <si>
+    <t>is compared with</t>
+  </si>
+  <si>
+    <t>93194812</t>
+  </si>
+  <si>
+    <t>15567570</t>
+  </si>
+  <si>
+    <t>356203</t>
+  </si>
+  <si>
+    <t>asthenia</t>
+  </si>
+  <si>
+    <t>75916077</t>
+  </si>
+  <si>
+    <t>16550329</t>
+  </si>
+  <si>
+    <t>114559171</t>
+  </si>
+  <si>
+    <t>prevents</t>
+  </si>
+  <si>
+    <t>114560620</t>
+  </si>
+  <si>
+    <t>predisposes</t>
+  </si>
+  <si>
+    <t>120468173</t>
+  </si>
+  <si>
+    <t>is associated with</t>
+  </si>
+  <si>
+    <t>643114</t>
+  </si>
+  <si>
+    <t>aspirin</t>
+  </si>
+  <si>
+    <t>133694308</t>
+  </si>
+  <si>
+    <t>12819041</t>
+  </si>
+  <si>
+    <t>620183</t>
+  </si>
+  <si>
+    <t>triglycerides</t>
+  </si>
+  <si>
+    <t>67800745</t>
+  </si>
+  <si>
+    <t>51508482</t>
+  </si>
+  <si>
+    <t>16785711</t>
+  </si>
+  <si>
+    <t>613016</t>
+  </si>
+  <si>
+    <t>comatose</t>
+  </si>
+  <si>
+    <t>16550387</t>
+  </si>
+  <si>
+    <t>113882245</t>
+  </si>
+  <si>
+    <t>complicates</t>
+  </si>
+  <si>
+    <t>40114992</t>
+  </si>
+  <si>
+    <t>54532450</t>
+  </si>
+  <si>
+    <t>53208950</t>
+  </si>
+  <si>
+    <t>119097093</t>
+  </si>
+  <si>
+    <t>4027122</t>
+  </si>
+  <si>
+    <t>pathologic neovascularization</t>
+  </si>
+  <si>
+    <t>16551055</t>
+  </si>
+  <si>
+    <t>54785367</t>
+  </si>
+  <si>
+    <t>331275</t>
+  </si>
+  <si>
+    <t>rats, wistar</t>
+  </si>
+  <si>
+    <t>111612754</t>
+  </si>
+  <si>
+    <t>58530504</t>
+  </si>
+  <si>
+    <t>590091</t>
+  </si>
+  <si>
+    <t>male population group</t>
+  </si>
+  <si>
+    <t>56108309</t>
+  </si>
+  <si>
+    <t>56812168</t>
+  </si>
+  <si>
+    <t>57237252</t>
+  </si>
+  <si>
+    <t>4747186</t>
+  </si>
+  <si>
+    <t>apoptosis</t>
+  </si>
+  <si>
+    <t>Physiology</t>
+  </si>
+  <si>
+    <t>67732377</t>
+  </si>
+  <si>
+    <t>117624011</t>
+  </si>
+  <si>
+    <t>72566269</t>
+  </si>
+  <si>
+    <t>91989193</t>
+  </si>
+  <si>
+    <t>89252967</t>
+  </si>
+  <si>
+    <t>4033983</t>
+  </si>
+  <si>
+    <t>pharmaceutical preparations</t>
+  </si>
+  <si>
+    <t>72326125</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>51556144</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
+    <t>77553442</t>
+  </si>
+  <si>
+    <t>104225203</t>
+  </si>
+  <si>
+    <t>51556237</t>
+  </si>
+  <si>
+    <t>60932869</t>
+  </si>
+  <si>
+    <t>interacts with</t>
+  </si>
+  <si>
+    <t>56287758</t>
+  </si>
+  <si>
+    <t>64334997</t>
+  </si>
+  <si>
+    <t>54010207</t>
+  </si>
+  <si>
+    <t>122449892</t>
+  </si>
+  <si>
+    <t>125627022</t>
+  </si>
+  <si>
+    <t>5648228</t>
+  </si>
+  <si>
+    <t>therapeutic procedure</t>
+  </si>
+  <si>
+    <t>Procedures</t>
+  </si>
+  <si>
+    <t>119183319</t>
+  </si>
+  <si>
+    <t>52025036</t>
+  </si>
+  <si>
+    <t>52025671</t>
+  </si>
+  <si>
+    <t>88403792</t>
+  </si>
+  <si>
+    <t>is method of</t>
+  </si>
+  <si>
+    <t>88403855</t>
+  </si>
+  <si>
+    <t>51466136</t>
+  </si>
+  <si>
+    <t>115996242</t>
+  </si>
+  <si>
+    <t>51893104</t>
+  </si>
+  <si>
+    <t>74049109</t>
+  </si>
+  <si>
+    <t>82540308</t>
+  </si>
+  <si>
+    <t>does not treat</t>
+  </si>
+  <si>
+    <t>62514506</t>
+  </si>
+  <si>
+    <t>723678</t>
+  </si>
+  <si>
+    <t>animals, laboratory</t>
+  </si>
+  <si>
+    <t>78370894</t>
+  </si>
+  <si>
+    <t>83508805</t>
+  </si>
+  <si>
+    <t>812094</t>
+  </si>
+  <si>
+    <t>operative surgical procedures</t>
+  </si>
+  <si>
+    <t>76745992</t>
+  </si>
+  <si>
+    <t>72769024</t>
+  </si>
+  <si>
+    <t>711620</t>
+  </si>
+  <si>
+    <t>combined modality therapy</t>
+  </si>
+  <si>
+    <t>70617607</t>
+  </si>
+  <si>
+    <t>94161795</t>
+  </si>
+  <si>
+    <t>607167</t>
+  </si>
+  <si>
+    <t>hypertensive disease</t>
+  </si>
+  <si>
+    <t>16550769</t>
+  </si>
+  <si>
+    <t>58318672</t>
+  </si>
+  <si>
+    <t>52881099</t>
+  </si>
+  <si>
+    <t>does not prevent</t>
+  </si>
+  <si>
+    <t>93147664</t>
+  </si>
+  <si>
+    <t>40115380</t>
+  </si>
+  <si>
+    <t>5223016</t>
+  </si>
+  <si>
+    <t>syndrome</t>
+  </si>
+  <si>
+    <t>72323684</t>
+  </si>
+  <si>
+    <t>54575953</t>
+  </si>
+  <si>
+    <t>75877382</t>
+  </si>
+  <si>
+    <t>78701613</t>
+  </si>
+  <si>
+    <t>81373228</t>
+  </si>
+  <si>
+    <t>4048530</t>
+  </si>
+  <si>
+    <t>hypotension</t>
+  </si>
+  <si>
+    <t>55297799</t>
+  </si>
+  <si>
+    <t>72099801</t>
+  </si>
+  <si>
+    <t>16550857</t>
+  </si>
+  <si>
+    <t>61119910</t>
+  </si>
+  <si>
+    <t>40116315</t>
+  </si>
+  <si>
+    <t>40106280</t>
+  </si>
+  <si>
+    <t>120219147</t>
+  </si>
+  <si>
+    <t>3814867</t>
+  </si>
+  <si>
+    <t>spleen</t>
+  </si>
+  <si>
+    <t>Anatomy</t>
+  </si>
+  <si>
+    <t>124325757</t>
+  </si>
+  <si>
+    <t>augments</t>
+  </si>
+  <si>
+    <t>69617908</t>
+  </si>
+  <si>
+    <t>72193029</t>
+  </si>
+  <si>
+    <t>836641</t>
+  </si>
+  <si>
+    <t>norepinephrine</t>
+  </si>
+  <si>
+    <t>74872910</t>
+  </si>
+  <si>
+    <t>65999128</t>
+  </si>
+  <si>
+    <t>74873102</t>
+  </si>
+  <si>
+    <t>74008341</t>
+  </si>
+  <si>
+    <t>627465</t>
+  </si>
+  <si>
+    <t>reperfusion injury</t>
+  </si>
+  <si>
+    <t>66328014</t>
+  </si>
+  <si>
+    <t>40069104</t>
+  </si>
+  <si>
+    <t>91191859</t>
+  </si>
+  <si>
+    <t>133759336</t>
+  </si>
+  <si>
+    <t>544027</t>
+  </si>
+  <si>
+    <t>kidney</t>
+  </si>
+  <si>
+    <t>64562627</t>
+  </si>
+  <si>
+    <t>51592306</t>
+  </si>
+  <si>
+    <t>47573</t>
+  </si>
+  <si>
+    <t>cells</t>
+  </si>
+  <si>
+    <t>107320883</t>
+  </si>
+  <si>
+    <t>111634081</t>
+  </si>
+  <si>
+    <t>95468187</t>
+  </si>
+  <si>
     <t>301179</t>
   </si>
   <si>
     <t>child</t>
   </si>
   <si>
-    <t>Living Beings</t>
-  </si>
-  <si>
-    <t>363448</t>
-  </si>
-  <si>
-    <t>liver failure, acute</t>
-  </si>
-  <si>
-    <t>Disorders</t>
-  </si>
-  <si>
-    <t>123223415</t>
-  </si>
-  <si>
-    <t>is administered to</t>
-  </si>
-  <si>
-    <t>133945863</t>
-  </si>
-  <si>
-    <t>occurs in</t>
-  </si>
-  <si>
-    <t>128423615</t>
-  </si>
-  <si>
-    <t>affects</t>
-  </si>
-  <si>
-    <t>117490965</t>
-  </si>
-  <si>
-    <t>is process of</t>
-  </si>
-  <si>
-    <t>123706112</t>
-  </si>
-  <si>
-    <t>is not process of</t>
-  </si>
-  <si>
-    <t>5648228</t>
-  </si>
-  <si>
-    <t>therapeutic procedure</t>
-  </si>
-  <si>
-    <t>Procedures</t>
-  </si>
-  <si>
-    <t>118246225</t>
-  </si>
-  <si>
-    <t>uses</t>
-  </si>
-  <si>
-    <t>185326717</t>
-  </si>
-  <si>
-    <t>is compared with</t>
-  </si>
-  <si>
-    <t>118245437</t>
-  </si>
-  <si>
-    <t>is a</t>
-  </si>
-  <si>
-    <t>154604763</t>
-  </si>
-  <si>
-    <t>is method of</t>
-  </si>
-  <si>
-    <t>154604704</t>
-  </si>
-  <si>
-    <t>118143471</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>137929071</t>
-  </si>
-  <si>
-    <t>prevents</t>
-  </si>
-  <si>
-    <t>148960902</t>
-  </si>
-  <si>
-    <t>does not treat</t>
-  </si>
-  <si>
-    <t>117666051</t>
-  </si>
-  <si>
-    <t>treats</t>
-  </si>
-  <si>
-    <t>128994083</t>
-  </si>
-  <si>
-    <t>182193950</t>
-  </si>
-  <si>
-    <t>predisposes</t>
-  </si>
-  <si>
-    <t>4048979</t>
-  </si>
-  <si>
-    <t>mus</t>
-  </si>
-  <si>
-    <t>144717300</t>
-  </si>
-  <si>
-    <t>132103027</t>
-  </si>
-  <si>
-    <t>117486756</t>
-  </si>
-  <si>
-    <t>607167</t>
-  </si>
-  <si>
-    <t>hypertensive disease</t>
-  </si>
-  <si>
-    <t>159334761</t>
-  </si>
-  <si>
-    <t>119135069</t>
-  </si>
-  <si>
-    <t>does not prevent</t>
-  </si>
-  <si>
-    <t>82799029</t>
-  </si>
-  <si>
-    <t>121004390</t>
-  </si>
-  <si>
-    <t>106307794</t>
-  </si>
-  <si>
-    <t>is manifestation of</t>
+    <t>56824230</t>
+  </si>
+  <si>
+    <t>67480145</t>
+  </si>
+  <si>
+    <t>51292010</t>
+  </si>
+  <si>
+    <t>57206461</t>
+  </si>
+  <si>
+    <t>62023145</t>
+  </si>
+  <si>
+    <t>89343</t>
+  </si>
+  <si>
+    <t>tamoxifen</t>
+  </si>
+  <si>
+    <t>105836549</t>
+  </si>
+  <si>
+    <t>16533856</t>
+  </si>
+  <si>
+    <t>5647992</t>
+  </si>
+  <si>
+    <t>cavia</t>
+  </si>
+  <si>
+    <t>78370959</t>
+  </si>
+  <si>
+    <t>61824597</t>
+  </si>
+  <si>
+    <t>5308239</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>68555201</t>
+  </si>
+  <si>
+    <t>86100542</t>
+  </si>
+  <si>
+    <t>91866904</t>
+  </si>
+  <si>
+    <t>51400604</t>
+  </si>
+  <si>
+    <t>431254</t>
+  </si>
+  <si>
+    <t>brain</t>
+  </si>
+  <si>
+    <t>75645346</t>
+  </si>
+  <si>
+    <t>65028373</t>
+  </si>
+  <si>
+    <t>51315267</t>
+  </si>
+  <si>
+    <t>67577805</t>
+  </si>
+  <si>
+    <t>4041622</t>
+  </si>
+  <si>
+    <t>felis catus</t>
+  </si>
+  <si>
+    <t>64562550</t>
+  </si>
+  <si>
+    <t>93377162</t>
+  </si>
+  <si>
+    <t>4028398</t>
+  </si>
+  <si>
+    <t>placebos</t>
+  </si>
+  <si>
+    <t>51556495</t>
+  </si>
+  <si>
+    <t>57429854</t>
+  </si>
+  <si>
+    <t>is higher than</t>
+  </si>
+  <si>
+    <t>84261528</t>
+  </si>
+  <si>
+    <t>102473998</t>
+  </si>
+  <si>
+    <t>148685</t>
+  </si>
+  <si>
+    <t>homeostasis</t>
+  </si>
+  <si>
+    <t>Phenomena</t>
+  </si>
+  <si>
+    <t>118635416</t>
+  </si>
+  <si>
+    <t>75291927</t>
+  </si>
+  <si>
+    <t>73434122</t>
+  </si>
+  <si>
+    <t>84764</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>90201422</t>
+  </si>
+  <si>
+    <t>disrupts</t>
+  </si>
+  <si>
+    <t>112898019</t>
+  </si>
+  <si>
+    <t>85591765</t>
+  </si>
+  <si>
+    <t>837423</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>114561337</t>
+  </si>
+  <si>
+    <t>89232516</t>
+  </si>
+  <si>
+    <t>67671190</t>
+  </si>
+  <si>
+    <t>51400152</t>
+  </si>
+  <si>
+    <t>125370252</t>
+  </si>
+  <si>
+    <t>103370538</t>
+  </si>
+  <si>
+    <t>51411604</t>
+  </si>
+  <si>
+    <t>110609339</t>
+  </si>
+  <si>
+    <t>133759356</t>
+  </si>
+  <si>
+    <t>59270530</t>
+  </si>
+  <si>
+    <t>5166696</t>
+  </si>
+  <si>
+    <t>albumins</t>
+  </si>
+  <si>
+    <t>65755356</t>
+  </si>
+  <si>
+    <t>60704691</t>
+  </si>
+  <si>
+    <t>4877776</t>
+  </si>
+  <si>
+    <t>rattus norvegicus</t>
+  </si>
+  <si>
+    <t>65748197</t>
+  </si>
+  <si>
+    <t>60932665</t>
+  </si>
+  <si>
+    <t>97000043</t>
+  </si>
+  <si>
+    <t>51599574</t>
+  </si>
+  <si>
+    <t>821170</t>
+  </si>
+  <si>
+    <t>epinephrine</t>
+  </si>
+  <si>
+    <t>113926229</t>
+  </si>
+  <si>
+    <t>76021820</t>
+  </si>
+  <si>
+    <t>74008433</t>
+  </si>
+  <si>
+    <t>638762</t>
+  </si>
+  <si>
+    <t>cell growth</t>
+  </si>
+  <si>
+    <t>113890632</t>
+  </si>
+  <si>
+    <t>63823298</t>
+  </si>
+  <si>
+    <t>84289599</t>
+  </si>
+  <si>
+    <t>5646027</t>
+  </si>
+  <si>
+    <t>antibiotics</t>
+  </si>
+  <si>
+    <t>98838123</t>
+  </si>
+  <si>
+    <t>121142515</t>
+  </si>
+  <si>
+    <t>89402645</t>
+  </si>
+  <si>
+    <t>5264642</t>
+  </si>
+  <si>
+    <t>binding sites</t>
+  </si>
+  <si>
+    <t>74993112</t>
+  </si>
+  <si>
+    <t>85946454</t>
+  </si>
+  <si>
+    <t>506596</t>
+  </si>
+  <si>
+    <t>left atrial structure</t>
+  </si>
+  <si>
+    <t>69829274</t>
+  </si>
+  <si>
+    <t>70660212</t>
+  </si>
+  <si>
+    <t>414518</t>
+  </si>
+  <si>
+    <t>congestive heart failure</t>
+  </si>
+  <si>
+    <t>73420079</t>
+  </si>
+  <si>
+    <t>60607851</t>
+  </si>
+  <si>
+    <t>86015580</t>
+  </si>
+  <si>
+    <t>does not cause</t>
+  </si>
+  <si>
+    <t>51882766</t>
+  </si>
+  <si>
+    <t>4042066</t>
+  </si>
+  <si>
+    <t>cell death</t>
+  </si>
+  <si>
+    <t>107320735</t>
+  </si>
+  <si>
+    <t>69728196</t>
+  </si>
+  <si>
+    <t>127562394</t>
+  </si>
+  <si>
+    <t>3814239</t>
+  </si>
+  <si>
+    <t>rodent</t>
+  </si>
+  <si>
+    <t>89232316</t>
+  </si>
+  <si>
+    <t>103311220</t>
+  </si>
+  <si>
+    <t>3784305</t>
+  </si>
+  <si>
+    <t>functional disorder</t>
+  </si>
+  <si>
+    <t>Concepts &amp; Ideas</t>
+  </si>
+  <si>
+    <t>91463296</t>
+  </si>
+  <si>
+    <t>52273899</t>
+  </si>
+  <si>
+    <t>78240374</t>
+  </si>
+  <si>
+    <t>107942066</t>
+  </si>
+  <si>
+    <t>99349356</t>
+  </si>
+  <si>
+    <t>109119226</t>
+  </si>
+  <si>
+    <t>87846342</t>
+  </si>
+  <si>
+    <t>104859350</t>
+  </si>
+  <si>
+    <t>118621164</t>
+  </si>
+  <si>
+    <t>332232</t>
+  </si>
+  <si>
+    <t>transforming growth factor beta-1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>118042584</t>
+  </si>
+  <si>
+    <t>70563198</t>
+  </si>
+  <si>
+    <t>2978160</t>
+  </si>
+  <si>
+    <t>assay</t>
+  </si>
+  <si>
+    <t>88540762</t>
+  </si>
+  <si>
+    <t>53098340</t>
+  </si>
+  <si>
+    <t>diagnoses</t>
+  </si>
+  <si>
+    <t>2940375</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>56681071</t>
+  </si>
+  <si>
+    <t>107785645</t>
+  </si>
+  <si>
+    <t>115719446</t>
+  </si>
+  <si>
+    <t>86104483</t>
+  </si>
+  <si>
+    <t>107588564</t>
+  </si>
+  <si>
+    <t>103856860</t>
+  </si>
+  <si>
+    <t>2511284</t>
+  </si>
+  <si>
+    <t>induction procedure</t>
+  </si>
+  <si>
+    <t>119186020</t>
+  </si>
+  <si>
+    <t>85221731</t>
+  </si>
+  <si>
+    <t>93266534</t>
+  </si>
+  <si>
+    <t>2396875</t>
+  </si>
+  <si>
+    <t>receptor</t>
+  </si>
+  <si>
+    <t>87671988</t>
+  </si>
+  <si>
+    <t>76948601</t>
+  </si>
+  <si>
+    <t>116150925</t>
+  </si>
+  <si>
+    <t>837071</t>
+  </si>
+  <si>
+    <t>phenylephrine</t>
+  </si>
+  <si>
+    <t>73399199</t>
+  </si>
+  <si>
+    <t>70723325</t>
+  </si>
+  <si>
+    <t>72099502</t>
+  </si>
+  <si>
+    <t>74873203</t>
+  </si>
+  <si>
+    <t>66470278</t>
+  </si>
+  <si>
+    <t>109142794</t>
+  </si>
+  <si>
+    <t>836817</t>
+  </si>
+  <si>
+    <t>insulin (homo sapiens)</t>
+  </si>
+  <si>
+    <t>86263075</t>
+  </si>
+  <si>
+    <t>79035060</t>
+  </si>
+  <si>
+    <t>52340962</t>
+  </si>
+  <si>
+    <t>836626</t>
+  </si>
+  <si>
+    <t>sodium chloride</t>
+  </si>
+  <si>
+    <t>87560212</t>
+  </si>
+  <si>
+    <t>82739546</t>
+  </si>
+  <si>
+    <t>133002314</t>
+  </si>
+  <si>
+    <t>836219</t>
+  </si>
+  <si>
+    <t>glucose</t>
+  </si>
+  <si>
+    <t>86263039</t>
+  </si>
+  <si>
+    <t>117117920</t>
+  </si>
+  <si>
+    <t>86288816</t>
+  </si>
+  <si>
+    <t>94904484</t>
+  </si>
+  <si>
+    <t>85258027</t>
+  </si>
+  <si>
+    <t>110929369</t>
+  </si>
+  <si>
+    <t>79417077</t>
+  </si>
+  <si>
+    <t>51658813</t>
+  </si>
+  <si>
+    <t>119603227</t>
+  </si>
+  <si>
+    <t>700033</t>
+  </si>
+  <si>
+    <t>angiotensinogen (homo sapiens)</t>
+  </si>
+  <si>
+    <t>94924313</t>
+  </si>
+  <si>
+    <t>123846785</t>
+  </si>
+  <si>
+    <t>614774</t>
+  </si>
+  <si>
+    <t>nitric oxide</t>
+  </si>
+  <si>
+    <t>112732783</t>
+  </si>
+  <si>
+    <t>129144256</t>
+  </si>
+  <si>
+    <t>86106155</t>
+  </si>
+  <si>
+    <t>103747639</t>
+  </si>
+  <si>
+    <t>614331</t>
+  </si>
+  <si>
+    <t>catalase (homo sapiens)</t>
+  </si>
+  <si>
+    <t>130404854</t>
+  </si>
+  <si>
+    <t>68941151</t>
+  </si>
+  <si>
+    <t>5802726</t>
+  </si>
+  <si>
+    <t>serotonin</t>
+  </si>
+  <si>
+    <t>108666912</t>
+  </si>
+  <si>
+    <t>60738218</t>
+  </si>
+  <si>
+    <t>5294373</t>
+  </si>
+  <si>
+    <t>black race</t>
+  </si>
+  <si>
+    <t>67800266</t>
+  </si>
+  <si>
+    <t>99969018</t>
+  </si>
+  <si>
+    <t>5127800</t>
+  </si>
+  <si>
+    <t>psychotherapy, multiple</t>
+  </si>
+  <si>
+    <t>73998668</t>
+  </si>
+  <si>
+    <t>101674510</t>
+  </si>
+  <si>
+    <t>500157</t>
+  </si>
+  <si>
+    <t>cardiac output</t>
+  </si>
+  <si>
+    <t>73420575</t>
+  </si>
+  <si>
+    <t>58492803</t>
+  </si>
+  <si>
+    <t>84374039</t>
+  </si>
+  <si>
+    <t>450061</t>
+  </si>
+  <si>
+    <t>propranolol</t>
+  </si>
+  <si>
+    <t>82719183</t>
+  </si>
+  <si>
+    <t>is the same as</t>
+  </si>
+  <si>
+    <t>75568379</t>
+  </si>
+  <si>
+    <t>does not interact with</t>
+  </si>
+  <si>
+    <t>82719113</t>
+  </si>
+  <si>
+    <t>58088764</t>
+  </si>
+  <si>
+    <t>4048421</t>
+  </si>
+  <si>
+    <t>hemodynamics</t>
+  </si>
+  <si>
+    <t>84277145</t>
+  </si>
+  <si>
+    <t>55811895</t>
+  </si>
+  <si>
+    <t>79752508</t>
+  </si>
+  <si>
+    <t>4042083</t>
+  </si>
+  <si>
+    <t>buffers</t>
+  </si>
+  <si>
+    <t>61699596</t>
+  </si>
+  <si>
+    <t>81645080</t>
+  </si>
+  <si>
+    <t>4042067</t>
+  </si>
+  <si>
+    <t>cerebral cortex</t>
+  </si>
+  <si>
+    <t>76556565</t>
+  </si>
+  <si>
+    <t>107476936</t>
+  </si>
+  <si>
+    <t>51372332</t>
+  </si>
+  <si>
+    <t>4041439</t>
+  </si>
+  <si>
+    <t>dopamine</t>
+  </si>
+  <si>
+    <t>69829679</t>
+  </si>
+  <si>
+    <t>64299688</t>
+  </si>
+  <si>
+    <t>64298712</t>
+  </si>
+  <si>
+    <t>74009408</t>
+  </si>
+  <si>
+    <t>3811276</t>
+  </si>
+  <si>
+    <t>favor</t>
+  </si>
+  <si>
+    <t>82718695</t>
+  </si>
+  <si>
+    <t>52857301</t>
+  </si>
+  <si>
+    <t>130821115</t>
+  </si>
+  <si>
+    <t>3783420</t>
+  </si>
+  <si>
+    <t>caspase-3</t>
+  </si>
+  <si>
+    <t>111603841</t>
+  </si>
+  <si>
+    <t>84643054</t>
+  </si>
+  <si>
+    <t>3763552</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>97718859</t>
+  </si>
+  <si>
+    <t>52834614</t>
+  </si>
+  <si>
+    <t>82619340</t>
+  </si>
+  <si>
+    <t>36011</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>111646699</t>
+  </si>
+  <si>
+    <t>57009257</t>
+  </si>
+  <si>
+    <t>115975867</t>
+  </si>
+  <si>
+    <t>352433</t>
+  </si>
+  <si>
+    <t>endothelin-1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>76880740</t>
+  </si>
+  <si>
+    <t>does not stimulate</t>
+  </si>
+  <si>
+    <t>65656665</t>
+  </si>
+  <si>
+    <t>3225259</t>
+  </si>
+  <si>
+    <t>vascular endothelial growth factor a (homo sapiens)</t>
+  </si>
+  <si>
+    <t>116487710</t>
+  </si>
+  <si>
+    <t>95372284</t>
+  </si>
+  <si>
+    <t>126275381</t>
+  </si>
+  <si>
+    <t>3202301</t>
+  </si>
+  <si>
+    <t>systemic arterial pressure</t>
+  </si>
+  <si>
+    <t>51507930</t>
+  </si>
+  <si>
+    <t>63229524</t>
+  </si>
+  <si>
+    <t>52613108</t>
+  </si>
+  <si>
+    <t>57601374</t>
+  </si>
+  <si>
+    <t>89641552</t>
+  </si>
+  <si>
+    <t>3131611</t>
+  </si>
+  <si>
+    <t>observation parameter</t>
+  </si>
+  <si>
+    <t>95512163</t>
+  </si>
+  <si>
+    <t>73465165</t>
+  </si>
+  <si>
+    <t>126796641</t>
+  </si>
+  <si>
+    <t>62090088</t>
+  </si>
+  <si>
+    <t>75051666</t>
+  </si>
+  <si>
+    <t>129416538</t>
+  </si>
+  <si>
+    <t>3072277</t>
+  </si>
+  <si>
+    <t>antimicrobial susceptibility</t>
+  </si>
+  <si>
+    <t>130049718</t>
+  </si>
+  <si>
+    <t>52894806</t>
+  </si>
+  <si>
+    <t>3054763</t>
+  </si>
+  <si>
+    <t>medical therapy</t>
+  </si>
+  <si>
+    <t>124539811</t>
+  </si>
+  <si>
+    <t>57991288</t>
+  </si>
+  <si>
+    <t>113649898</t>
+  </si>
+  <si>
+    <t>2972331</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>105900286</t>
+  </si>
+  <si>
+    <t>93240889</t>
+  </si>
+  <si>
+    <t>2791885</t>
+  </si>
+  <si>
+    <t>cd40 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>57514972</t>
+  </si>
+  <si>
+    <t>65043315</t>
+  </si>
+  <si>
+    <t>271994</t>
+  </si>
+  <si>
+    <t>potassium</t>
+  </si>
+  <si>
+    <t>86288750</t>
+  </si>
+  <si>
+    <t>94904247</t>
+  </si>
+  <si>
+    <t>87356305</t>
+  </si>
+  <si>
+    <t>2552993</t>
+  </si>
+  <si>
+    <t>cerebrovascular accident</t>
+  </si>
+  <si>
+    <t>109782366</t>
+  </si>
+  <si>
+    <t>65456813</t>
+  </si>
+  <si>
+    <t>64180277</t>
+  </si>
+  <si>
+    <t>2469681</t>
+  </si>
+  <si>
+    <t>flow</t>
+  </si>
+  <si>
+    <t>94751485</t>
+  </si>
+  <si>
+    <t>122021592</t>
+  </si>
+  <si>
+    <t>2449363</t>
+  </si>
+  <si>
+    <t>cytotoxicity</t>
+  </si>
+  <si>
+    <t>116487644</t>
+  </si>
+  <si>
+    <t>61571715</t>
+  </si>
+  <si>
+    <t>2449185</t>
+  </si>
+  <si>
+    <t>blood lipid</t>
+  </si>
+  <si>
+    <t>62209738</t>
+  </si>
+  <si>
+    <t>56287937</t>
+  </si>
+  <si>
+    <t>98975319</t>
+  </si>
+  <si>
+    <t>2385802</t>
+  </si>
+  <si>
+    <t>functional status</t>
+  </si>
+  <si>
+    <t>64923275</t>
+  </si>
+  <si>
+    <t>72566495</t>
+  </si>
+  <si>
+    <t>237928</t>
+  </si>
+  <si>
+    <t>control groups</t>
+  </si>
+  <si>
+    <t>67733180</t>
+  </si>
+  <si>
+    <t>109790653</t>
+  </si>
+  <si>
+    <t>does not affect</t>
+  </si>
+  <si>
+    <t>58868771</t>
+  </si>
+  <si>
+    <t>168831</t>
+  </si>
+  <si>
+    <t>high density lipoprotein cholesterol</t>
+  </si>
+  <si>
+    <t>55656545</t>
+  </si>
+  <si>
+    <t>115814392</t>
   </si>
   <si>
     <t>133368</t>
@@ -338,1318 +1853,28 @@
     <t>homo sapiens</t>
   </si>
   <si>
-    <t>125230979</t>
-  </si>
-  <si>
-    <t>118328603</t>
-  </si>
-  <si>
-    <t>190464647</t>
-  </si>
-  <si>
-    <t>4027653</t>
-  </si>
-  <si>
-    <t>patients</t>
-  </si>
-  <si>
-    <t>120263910</t>
-  </si>
-  <si>
-    <t>132105537</t>
-  </si>
-  <si>
-    <t>117749300</t>
-  </si>
-  <si>
-    <t>117482199</t>
-  </si>
-  <si>
-    <t>133483025</t>
-  </si>
-  <si>
-    <t>143847356</t>
-  </si>
-  <si>
-    <t>does not occur in</t>
-  </si>
-  <si>
-    <t>140065917</t>
-  </si>
-  <si>
-    <t>123886521</t>
-  </si>
-  <si>
-    <t>431254</t>
-  </si>
-  <si>
-    <t>brain</t>
-  </si>
-  <si>
-    <t>Anatomy</t>
-  </si>
-  <si>
-    <t>139640958</t>
-  </si>
-  <si>
-    <t>is location of</t>
-  </si>
-  <si>
-    <t>117512315</t>
-  </si>
-  <si>
-    <t>is associated with</t>
-  </si>
-  <si>
-    <t>131430994</t>
-  </si>
-  <si>
-    <t>134056050</t>
-  </si>
-  <si>
-    <t>307661</t>
-  </si>
-  <si>
-    <t>animals</t>
-  </si>
-  <si>
-    <t>136098457</t>
-  </si>
-  <si>
-    <t>147227912</t>
-  </si>
-  <si>
-    <t>118013900</t>
-  </si>
-  <si>
-    <t>816241</t>
-  </si>
-  <si>
-    <t>canis familiaris</t>
-  </si>
-  <si>
-    <t>125497614</t>
-  </si>
-  <si>
-    <t>118330545</t>
-  </si>
-  <si>
-    <t>4033983</t>
-  </si>
-  <si>
-    <t>pharmaceutical preparations</t>
-  </si>
-  <si>
-    <t>122714490</t>
-  </si>
-  <si>
-    <t>inhibits</t>
-  </si>
-  <si>
-    <t>144004828</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>138675089</t>
-  </si>
-  <si>
-    <t>117750020</t>
-  </si>
-  <si>
-    <t>117750118</t>
-  </si>
-  <si>
-    <t>170446018</t>
-  </si>
-  <si>
-    <t>123918270</t>
-  </si>
-  <si>
-    <t>interacts with</t>
-  </si>
-  <si>
-    <t>120336841</t>
-  </si>
-  <si>
-    <t>130686152</t>
-  </si>
-  <si>
-    <t>191814631</t>
-  </si>
-  <si>
-    <t>188640733</t>
-  </si>
-  <si>
-    <t>477234</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>149065273</t>
-  </si>
-  <si>
-    <t>stimulates</t>
-  </si>
-  <si>
-    <t>80652544</t>
-  </si>
-  <si>
-    <t>indicates</t>
-  </si>
-  <si>
-    <t>3772078</t>
-  </si>
-  <si>
-    <t>hepatotoxicity</t>
-  </si>
-  <si>
-    <t>188078170</t>
-  </si>
-  <si>
-    <t>129823745</t>
-  </si>
-  <si>
-    <t>196007950</t>
-  </si>
-  <si>
-    <t>153914378</t>
-  </si>
-  <si>
-    <t>147662599</t>
-  </si>
-  <si>
-    <t>760841</t>
-  </si>
-  <si>
-    <t>domestic rabbit</t>
-  </si>
-  <si>
-    <t>136098659</t>
-  </si>
-  <si>
-    <t>147227790</t>
-  </si>
-  <si>
-    <t>121728204</t>
-  </si>
-  <si>
-    <t>4033909</t>
-  </si>
-  <si>
-    <t>edema</t>
-  </si>
-  <si>
-    <t>82798955</t>
-  </si>
-  <si>
-    <t>154031670</t>
-  </si>
-  <si>
-    <t>106308208</t>
-  </si>
-  <si>
-    <t>158243151</t>
-  </si>
-  <si>
-    <t>117716482</t>
-  </si>
-  <si>
-    <t>2792624</t>
-  </si>
-  <si>
-    <t>bcl2 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>Genes &amp; Molecular Sequences</t>
-  </si>
-  <si>
-    <t>85348893</t>
-  </si>
-  <si>
-    <t>94961751</t>
-  </si>
-  <si>
-    <t>gene product is biomarker type</t>
-  </si>
-  <si>
-    <t>613016</t>
-  </si>
-  <si>
-    <t>comatose</t>
-  </si>
-  <si>
-    <t>82798647</t>
-  </si>
-  <si>
-    <t>106307417</t>
-  </si>
-  <si>
-    <t>180086684</t>
-  </si>
-  <si>
-    <t>complicates</t>
-  </si>
-  <si>
-    <t>185290356</t>
-  </si>
-  <si>
-    <t>119491025</t>
-  </si>
-  <si>
-    <t>120931606</t>
-  </si>
-  <si>
-    <t>4041077</t>
-  </si>
-  <si>
-    <t>enalapril</t>
-  </si>
-  <si>
-    <t>143971767</t>
-  </si>
-  <si>
-    <t>81783510</t>
-  </si>
-  <si>
-    <t>159360732</t>
-  </si>
-  <si>
-    <t>356203</t>
-  </si>
-  <si>
-    <t>asthenia</t>
-  </si>
-  <si>
-    <t>180792703</t>
-  </si>
-  <si>
-    <t>82798589</t>
-  </si>
-  <si>
-    <t>180791063</t>
-  </si>
-  <si>
-    <t>142255974</t>
-  </si>
-  <si>
-    <t>186685974</t>
-  </si>
-  <si>
-    <t>643114</t>
-  </si>
-  <si>
-    <t>aspirin</t>
-  </si>
-  <si>
-    <t>199885158</t>
-  </si>
-  <si>
-    <t>79215779</t>
-  </si>
-  <si>
-    <t>620183</t>
-  </si>
-  <si>
-    <t>triglycerides</t>
-  </si>
-  <si>
-    <t>134292389</t>
-  </si>
-  <si>
-    <t>117707655</t>
-  </si>
-  <si>
-    <t>83033577</t>
-  </si>
-  <si>
-    <t>4027122</t>
-  </si>
-  <si>
-    <t>pathologic neovascularization</t>
-  </si>
-  <si>
-    <t>82799315</t>
-  </si>
-  <si>
-    <t>121169061</t>
-  </si>
-  <si>
-    <t>2940375</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>123121730</t>
-  </si>
-  <si>
-    <t>174006597</t>
-  </si>
-  <si>
-    <t>152528284</t>
-  </si>
-  <si>
-    <t>170057881</t>
-  </si>
-  <si>
-    <t>173810729</t>
-  </si>
-  <si>
-    <t>181928686</t>
-  </si>
-  <si>
-    <t>3763552</t>
-  </si>
-  <si>
-    <t>individual</t>
-  </si>
-  <si>
-    <t>163925306</t>
-  </si>
-  <si>
-    <t>148992322</t>
-  </si>
-  <si>
-    <t>119103158</t>
-  </si>
-  <si>
-    <t>331275</t>
-  </si>
-  <si>
-    <t>rats, wistar</t>
-  </si>
-  <si>
-    <t>177836995</t>
-  </si>
-  <si>
-    <t>124957046</t>
-  </si>
-  <si>
-    <t>3202301</t>
-  </si>
-  <si>
-    <t>systemic arterial pressure</t>
-  </si>
-  <si>
-    <t>118859746</t>
-  </si>
-  <si>
-    <t>117707187</t>
-  </si>
-  <si>
-    <t>123994108</t>
-  </si>
-  <si>
-    <t>129603451</t>
-  </si>
-  <si>
-    <t>155871606</t>
-  </si>
-  <si>
-    <t>590091</t>
-  </si>
-  <si>
-    <t>male population group</t>
-  </si>
-  <si>
-    <t>123230271</t>
-  </si>
-  <si>
-    <t>122544806</t>
-  </si>
-  <si>
-    <t>123730215</t>
-  </si>
-  <si>
-    <t>836817</t>
-  </si>
-  <si>
-    <t>insulin (homo sapiens)</t>
-  </si>
-  <si>
-    <t>152731010</t>
-  </si>
-  <si>
-    <t>145519456</t>
-  </si>
-  <si>
-    <t>118594215</t>
-  </si>
-  <si>
-    <t>237928</t>
-  </si>
-  <si>
-    <t>control groups</t>
-  </si>
-  <si>
-    <t>134055385</t>
-  </si>
-  <si>
-    <t>125305514</t>
-  </si>
-  <si>
-    <t>176018437</t>
-  </si>
-  <si>
-    <t>does not affect</t>
-  </si>
-  <si>
-    <t>723678</t>
-  </si>
-  <si>
-    <t>animals, laboratory</t>
-  </si>
-  <si>
-    <t>144717173</t>
-  </si>
-  <si>
-    <t>149927785</t>
-  </si>
-  <si>
-    <t>812094</t>
-  </si>
-  <si>
-    <t>operative surgical procedures</t>
-  </si>
-  <si>
-    <t>143133717</t>
-  </si>
-  <si>
-    <t>139157857</t>
-  </si>
-  <si>
-    <t>711620</t>
-  </si>
-  <si>
-    <t>combined modality therapy</t>
-  </si>
-  <si>
-    <t>136938763</t>
-  </si>
-  <si>
-    <t>160339481</t>
-  </si>
-  <si>
-    <t>544027</t>
-  </si>
-  <si>
-    <t>kidney</t>
-  </si>
-  <si>
-    <t>131047215</t>
-  </si>
-  <si>
-    <t>117794811</t>
-  </si>
-  <si>
-    <t>47573</t>
-  </si>
-  <si>
-    <t>cells</t>
-  </si>
-  <si>
-    <t>173541313</t>
-  </si>
-  <si>
-    <t>177858801</t>
-  </si>
-  <si>
-    <t>161668018</t>
-  </si>
-  <si>
-    <t>414518</t>
-  </si>
-  <si>
-    <t>congestive heart failure</t>
-  </si>
-  <si>
-    <t>139734878</t>
-  </si>
-  <si>
-    <t>127042694</t>
-  </si>
-  <si>
-    <t>152487830</t>
-  </si>
-  <si>
-    <t>does not cause</t>
-  </si>
-  <si>
-    <t>118108551</t>
-  </si>
-  <si>
-    <t>836641</t>
-  </si>
-  <si>
-    <t>norepinephrine</t>
-  </si>
-  <si>
-    <t>141205440</t>
-  </si>
-  <si>
-    <t>141205271</t>
-  </si>
-  <si>
-    <t>132345893</t>
-  </si>
-  <si>
-    <t>140358681</t>
-  </si>
-  <si>
-    <t>5647992</t>
-  </si>
-  <si>
-    <t>cavia</t>
-  </si>
-  <si>
-    <t>144717229</t>
-  </si>
-  <si>
-    <t>128218443</t>
-  </si>
-  <si>
-    <t>5308239</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>135052031</t>
-  </si>
-  <si>
-    <t>158095083</t>
-  </si>
-  <si>
-    <t>152524196</t>
-  </si>
-  <si>
-    <t>117615032</t>
-  </si>
-  <si>
-    <t>4048530</t>
-  </si>
-  <si>
-    <t>hypotension</t>
-  </si>
-  <si>
-    <t>121688484</t>
-  </si>
-  <si>
-    <t>138588700</t>
-  </si>
-  <si>
-    <t>82799117</t>
-  </si>
-  <si>
-    <t>127540909</t>
-  </si>
-  <si>
-    <t>186360424</t>
-  </si>
-  <si>
-    <t>106308875</t>
-  </si>
-  <si>
-    <t>106291356</t>
-  </si>
-  <si>
-    <t>4041622</t>
-  </si>
-  <si>
-    <t>felis catus</t>
-  </si>
-  <si>
-    <t>131047147</t>
-  </si>
-  <si>
-    <t>159495613</t>
-  </si>
-  <si>
-    <t>4028398</t>
-  </si>
-  <si>
-    <t>placebos</t>
-  </si>
-  <si>
-    <t>123849740</t>
-  </si>
-  <si>
-    <t>is higher than</t>
-  </si>
-  <si>
-    <t>150635670</t>
-  </si>
-  <si>
-    <t>117750423</t>
-  </si>
-  <si>
-    <t>168662721</t>
-  </si>
-  <si>
-    <t>3784305</t>
-  </si>
-  <si>
-    <t>functional disorder</t>
-  </si>
-  <si>
-    <t>Concepts &amp; Ideas</t>
-  </si>
-  <si>
-    <t>157654175</t>
-  </si>
-  <si>
-    <t>165583919</t>
-  </si>
-  <si>
-    <t>118549714</t>
-  </si>
-  <si>
-    <t>175331513</t>
-  </si>
-  <si>
-    <t>184763126</t>
-  </si>
-  <si>
-    <t>171071028</t>
-  </si>
-  <si>
-    <t>144686019</t>
-  </si>
-  <si>
-    <t>154031662</t>
-  </si>
-  <si>
-    <t>174170531</t>
-  </si>
-  <si>
-    <t>84764</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>Physiology</t>
-  </si>
-  <si>
-    <t>156358201</t>
-  </si>
-  <si>
-    <t>disrupts</t>
-  </si>
-  <si>
-    <t>179071573</t>
-  </si>
-  <si>
-    <t>151970892</t>
-  </si>
-  <si>
-    <t>627465</t>
-  </si>
-  <si>
-    <t>reperfusion injury</t>
-  </si>
-  <si>
-    <t>132710745</t>
-  </si>
-  <si>
-    <t>199949800</t>
-  </si>
-  <si>
-    <t>157380519</t>
-  </si>
-  <si>
-    <t>106256533</t>
-  </si>
-  <si>
-    <t>5223016</t>
-  </si>
-  <si>
-    <t>syndrome</t>
-  </si>
-  <si>
-    <t>138704299</t>
-  </si>
-  <si>
-    <t>120977787</t>
-  </si>
-  <si>
-    <t>145816787</t>
-  </si>
-  <si>
-    <t>145149989</t>
-  </si>
-  <si>
-    <t>142312557</t>
-  </si>
-  <si>
-    <t>5166696</t>
-  </si>
-  <si>
-    <t>albumins</t>
-  </si>
-  <si>
-    <t>132111143</t>
-  </si>
-  <si>
-    <t>127086814</t>
-  </si>
-  <si>
-    <t>4877776</t>
-  </si>
-  <si>
-    <t>rattus norvegicus</t>
-  </si>
-  <si>
-    <t>123918023</t>
-  </si>
-  <si>
-    <t>132102912</t>
-  </si>
-  <si>
-    <t>163192171</t>
-  </si>
-  <si>
-    <t>117820309</t>
-  </si>
-  <si>
-    <t>4747186</t>
-  </si>
-  <si>
-    <t>apoptosis</t>
-  </si>
-  <si>
-    <t>134054541</t>
-  </si>
-  <si>
-    <t>183832930</t>
-  </si>
-  <si>
-    <t>138976929</t>
-  </si>
-  <si>
-    <t>155433120</t>
-  </si>
-  <si>
-    <t>158160046</t>
-  </si>
-  <si>
-    <t>3131611</t>
-  </si>
-  <si>
-    <t>observation parameter</t>
-  </si>
-  <si>
-    <t>192947931</t>
-  </si>
-  <si>
-    <t>161700961</t>
-  </si>
-  <si>
-    <t>139861162</t>
-  </si>
-  <si>
-    <t>128480614</t>
-  </si>
-  <si>
-    <t>141485577</t>
-  </si>
-  <si>
-    <t>195622374</t>
-  </si>
-  <si>
-    <t>2511284</t>
-  </si>
-  <si>
-    <t>induction procedure</t>
-  </si>
-  <si>
-    <t>185329366</t>
-  </si>
-  <si>
-    <t>151630847</t>
-  </si>
-  <si>
-    <t>159442992</t>
-  </si>
-  <si>
-    <t>837071</t>
-  </si>
-  <si>
-    <t>phenylephrine</t>
-  </si>
-  <si>
-    <t>138588453</t>
-  </si>
-  <si>
-    <t>137080706</t>
-  </si>
-  <si>
-    <t>139751356</t>
-  </si>
-  <si>
-    <t>129843259</t>
-  </si>
-  <si>
-    <t>141205520</t>
-  </si>
-  <si>
-    <t>175354887</t>
-  </si>
-  <si>
-    <t>821170</t>
-  </si>
-  <si>
-    <t>epinephrine</t>
-  </si>
-  <si>
-    <t>142487626</t>
-  </si>
-  <si>
-    <t>180050889</t>
-  </si>
-  <si>
-    <t>140358771</t>
-  </si>
-  <si>
-    <t>638762</t>
-  </si>
-  <si>
-    <t>cell growth</t>
-  </si>
-  <si>
-    <t>180111359</t>
-  </si>
-  <si>
-    <t>148791291</t>
-  </si>
-  <si>
-    <t>130227490</t>
-  </si>
-  <si>
-    <t>5646027</t>
-  </si>
-  <si>
-    <t>antibiotics</t>
-  </si>
-  <si>
-    <t>165053017</t>
-  </si>
-  <si>
-    <t>155541708</t>
-  </si>
-  <si>
-    <t>187333520</t>
-  </si>
-  <si>
-    <t>5264642</t>
-  </si>
-  <si>
-    <t>binding sites</t>
-  </si>
-  <si>
-    <t>138934228</t>
-  </si>
-  <si>
-    <t>152371220</t>
-  </si>
-  <si>
-    <t>506596</t>
-  </si>
-  <si>
-    <t>left atrial structure</t>
-  </si>
-  <si>
-    <t>133545203</t>
-  </si>
-  <si>
-    <t>137157638</t>
-  </si>
-  <si>
-    <t>4048421</t>
-  </si>
-  <si>
-    <t>hemodynamics</t>
-  </si>
-  <si>
-    <t>150751072</t>
-  </si>
-  <si>
-    <t>122180621</t>
-  </si>
-  <si>
-    <t>146235927</t>
-  </si>
-  <si>
-    <t>4042066</t>
-  </si>
-  <si>
-    <t>cell death</t>
-  </si>
-  <si>
-    <t>173541173</t>
-  </si>
-  <si>
-    <t>193750219</t>
-  </si>
-  <si>
-    <t>136157440</t>
-  </si>
-  <si>
-    <t>3814239</t>
-  </si>
-  <si>
-    <t>rodent</t>
-  </si>
-  <si>
-    <t>155408337</t>
-  </si>
-  <si>
-    <t>169427878</t>
-  </si>
-  <si>
-    <t>332232</t>
-  </si>
-  <si>
-    <t>transforming growth factor beta-1 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>184241269</t>
-  </si>
-  <si>
-    <t>137060348</t>
-  </si>
-  <si>
-    <t>2978160</t>
-  </si>
-  <si>
-    <t>assay</t>
-  </si>
-  <si>
-    <t>154714331</t>
-  </si>
-  <si>
-    <t>119383543</t>
-  </si>
-  <si>
-    <t>diagnoses</t>
-  </si>
-  <si>
-    <t>2396875</t>
-  </si>
-  <si>
-    <t>receptor</t>
-  </si>
-  <si>
-    <t>143433817</t>
-  </si>
-  <si>
-    <t>153908590</t>
-  </si>
-  <si>
-    <t>182372791</t>
-  </si>
-  <si>
-    <t>836626</t>
-  </si>
-  <si>
-    <t>sodium chloride</t>
-  </si>
-  <si>
-    <t>153841256</t>
-  </si>
-  <si>
-    <t>149191763</t>
-  </si>
-  <si>
-    <t>199194950</t>
-  </si>
-  <si>
-    <t>836219</t>
-  </si>
-  <si>
-    <t>glucose</t>
-  </si>
-  <si>
-    <t>161176657</t>
-  </si>
-  <si>
-    <t>152754129</t>
-  </si>
-  <si>
-    <t>183311985</t>
-  </si>
-  <si>
-    <t>151635281</t>
-  </si>
-  <si>
-    <t>152730949</t>
-  </si>
-  <si>
-    <t>177104361</t>
-  </si>
-  <si>
-    <t>145819443</t>
-  </si>
-  <si>
-    <t>117882437</t>
-  </si>
-  <si>
-    <t>185823843</t>
-  </si>
-  <si>
-    <t>700033</t>
-  </si>
-  <si>
-    <t>angiotensinogen (homo sapiens)</t>
-  </si>
-  <si>
-    <t>161037977</t>
-  </si>
-  <si>
-    <t>190061058</t>
-  </si>
-  <si>
-    <t>614774</t>
-  </si>
-  <si>
-    <t>nitric oxide</t>
-  </si>
-  <si>
-    <t>178958763</t>
-  </si>
-  <si>
-    <t>195298992</t>
-  </si>
-  <si>
-    <t>152530000</t>
-  </si>
-  <si>
-    <t>169975804</t>
-  </si>
-  <si>
-    <t>augments</t>
-  </si>
-  <si>
-    <t>614331</t>
-  </si>
-  <si>
-    <t>catalase (homo sapiens)</t>
-  </si>
-  <si>
-    <t>196608529</t>
-  </si>
-  <si>
-    <t>135334186</t>
-  </si>
-  <si>
-    <t>5802726</t>
-  </si>
-  <si>
-    <t>serotonin</t>
-  </si>
-  <si>
-    <t>174858301</t>
-  </si>
-  <si>
-    <t>127117946</t>
-  </si>
-  <si>
-    <t>5294373</t>
-  </si>
-  <si>
-    <t>black race</t>
-  </si>
-  <si>
-    <t>134291786</t>
-  </si>
-  <si>
-    <t>166185946</t>
-  </si>
-  <si>
-    <t>5127800</t>
-  </si>
-  <si>
-    <t>psychotherapy, multiple</t>
-  </si>
-  <si>
-    <t>140379431</t>
-  </si>
-  <si>
-    <t>167860736</t>
-  </si>
-  <si>
-    <t>500157</t>
-  </si>
-  <si>
-    <t>cardiac output</t>
-  </si>
-  <si>
-    <t>139735500</t>
-  </si>
-  <si>
-    <t>121193796</t>
-  </si>
-  <si>
-    <t>150755106</t>
-  </si>
-  <si>
-    <t>450061</t>
-  </si>
-  <si>
-    <t>propranolol</t>
-  </si>
-  <si>
-    <t>149189499</t>
-  </si>
-  <si>
-    <t>149189515</t>
-  </si>
-  <si>
-    <t>is the same as</t>
-  </si>
-  <si>
-    <t>141903489</t>
-  </si>
-  <si>
-    <t>does not interact with</t>
-  </si>
-  <si>
-    <t>124477094</t>
-  </si>
-  <si>
-    <t>4042083</t>
-  </si>
-  <si>
-    <t>buffers</t>
-  </si>
-  <si>
-    <t>128107387</t>
-  </si>
-  <si>
-    <t>148063785</t>
-  </si>
-  <si>
-    <t>4042067</t>
-  </si>
-  <si>
-    <t>cerebral cortex</t>
-  </si>
-  <si>
-    <t>143017409</t>
-  </si>
-  <si>
-    <t>173697167</t>
-  </si>
-  <si>
-    <t>117563206</t>
-  </si>
-  <si>
-    <t>4041439</t>
-  </si>
-  <si>
-    <t>dopamine</t>
-  </si>
-  <si>
-    <t>130711383</t>
-  </si>
-  <si>
-    <t>130710269</t>
-  </si>
-  <si>
-    <t>133545738</t>
-  </si>
-  <si>
-    <t>140359522</t>
-  </si>
-  <si>
-    <t>3814867</t>
-  </si>
-  <si>
-    <t>spleen</t>
-  </si>
-  <si>
-    <t>190467069</t>
-  </si>
-  <si>
-    <t>138589601</t>
-  </si>
-  <si>
-    <t>136014053</t>
-  </si>
-  <si>
-    <t>3811276</t>
-  </si>
-  <si>
-    <t>favor</t>
-  </si>
-  <si>
-    <t>119137718</t>
-  </si>
-  <si>
-    <t>149189159</t>
-  </si>
-  <si>
-    <t>197024865</t>
-  </si>
-  <si>
-    <t>3783420</t>
-  </si>
-  <si>
-    <t>caspase-3</t>
-  </si>
-  <si>
-    <t>177828550</t>
-  </si>
-  <si>
-    <t>151023491</t>
-  </si>
-  <si>
-    <t>36011</t>
-  </si>
-  <si>
-    <t>adult</t>
-  </si>
-  <si>
-    <t>177820004</t>
-  </si>
-  <si>
-    <t>182172142</t>
-  </si>
-  <si>
-    <t>123436313</t>
-  </si>
-  <si>
-    <t>352433</t>
-  </si>
-  <si>
-    <t>endothelin-1 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>143263900</t>
-  </si>
-  <si>
-    <t>does not stimulate</t>
-  </si>
-  <si>
-    <t>132051796</t>
-  </si>
-  <si>
-    <t>3225259</t>
-  </si>
-  <si>
-    <t>vascular endothelial growth factor a (homo sapiens)</t>
-  </si>
-  <si>
-    <t>182621115</t>
-  </si>
-  <si>
-    <t>161571415</t>
-  </si>
-  <si>
-    <t>192493512</t>
+    <t>58814600</t>
+  </si>
+  <si>
+    <t>52090339</t>
+  </si>
+  <si>
+    <t>124253546</t>
+  </si>
+  <si>
+    <t>771187</t>
+  </si>
+  <si>
+    <t>cholesterol</t>
+  </si>
+  <si>
+    <t>115775255</t>
+  </si>
+  <si>
+    <t>98976490</t>
+  </si>
+  <si>
+    <t>119607046</t>
   </si>
   <si>
     <t>3117088</t>
@@ -1658,199 +1883,22 @@
     <t>mean blood pressure</t>
   </si>
   <si>
-    <t>179973947</t>
-  </si>
-  <si>
-    <t>123993597</t>
-  </si>
-  <si>
-    <t>135906314</t>
-  </si>
-  <si>
-    <t>152834616</t>
-  </si>
-  <si>
-    <t>192191136</t>
-  </si>
-  <si>
-    <t>124299001</t>
-  </si>
-  <si>
-    <t>3072277</t>
-  </si>
-  <si>
-    <t>antimicrobial susceptibility</t>
-  </si>
-  <si>
-    <t>196272649</t>
-  </si>
-  <si>
-    <t>119170744</t>
-  </si>
-  <si>
-    <t>3054763</t>
-  </si>
-  <si>
-    <t>medical therapy</t>
-  </si>
-  <si>
-    <t>190752984</t>
-  </si>
-  <si>
-    <t>179775473</t>
-  </si>
-  <si>
-    <t>124414710</t>
-  </si>
-  <si>
-    <t>2972331</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>172007318</t>
-  </si>
-  <si>
-    <t>159417654</t>
-  </si>
-  <si>
-    <t>2791885</t>
-  </si>
-  <si>
-    <t>cd40 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>123902959</t>
-  </si>
-  <si>
-    <t>131404572</t>
-  </si>
-  <si>
-    <t>271994</t>
-  </si>
-  <si>
-    <t>potassium</t>
-  </si>
-  <si>
-    <t>161176460</t>
-  </si>
-  <si>
-    <t>152754069</t>
-  </si>
-  <si>
-    <t>153660868</t>
-  </si>
-  <si>
-    <t>2552993</t>
-  </si>
-  <si>
-    <t>cerebrovascular accident</t>
-  </si>
-  <si>
-    <t>175962047</t>
-  </si>
-  <si>
-    <t>130584821</t>
-  </si>
-  <si>
-    <t>131865808</t>
-  </si>
-  <si>
-    <t>2469681</t>
-  </si>
-  <si>
-    <t>flow</t>
-  </si>
-  <si>
-    <t>Phenomena</t>
-  </si>
-  <si>
-    <t>160942991</t>
-  </si>
-  <si>
-    <t>188167381</t>
-  </si>
-  <si>
-    <t>2449363</t>
-  </si>
-  <si>
-    <t>cytotoxicity</t>
-  </si>
-  <si>
-    <t>182621047</t>
-  </si>
-  <si>
-    <t>127981926</t>
-  </si>
-  <si>
-    <t>2449185</t>
-  </si>
-  <si>
-    <t>blood lipid</t>
-  </si>
-  <si>
-    <t>128601039</t>
-  </si>
-  <si>
-    <t>122714630</t>
-  </si>
-  <si>
-    <t>165175533</t>
-  </si>
-  <si>
-    <t>2385802</t>
-  </si>
-  <si>
-    <t>functional status</t>
-  </si>
-  <si>
-    <t>131417472</t>
-  </si>
-  <si>
-    <t>138977188</t>
-  </si>
-  <si>
-    <t>168831</t>
-  </si>
-  <si>
-    <t>high density lipoprotein cholesterol</t>
-  </si>
-  <si>
-    <t>122054489</t>
-  </si>
-  <si>
-    <t>182037262</t>
-  </si>
-  <si>
-    <t>148685</t>
-  </si>
-  <si>
-    <t>homeostasis</t>
-  </si>
-  <si>
-    <t>184853083</t>
-  </si>
-  <si>
-    <t>139256083</t>
-  </si>
-  <si>
-    <t>139831029</t>
-  </si>
-  <si>
-    <t>771187</t>
-  </si>
-  <si>
-    <t>cholesterol</t>
-  </si>
-  <si>
-    <t>181972958</t>
-  </si>
-  <si>
-    <t>165176741</t>
-  </si>
-  <si>
-    <t>185827870</t>
+    <t>57600758</t>
+  </si>
+  <si>
+    <t>86429060</t>
+  </si>
+  <si>
+    <t>69410181</t>
+  </si>
+  <si>
+    <t>125979551</t>
+  </si>
+  <si>
+    <t>113772402</t>
+  </si>
+  <si>
+    <t>57907185</t>
   </si>
 </sst>
 </file>
@@ -2055,7 +2103,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>274.0</v>
+        <v>169.0</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -2102,22 +2150,10 @@
       <c r="P2" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" t="s">
-        <v>65</v>
-      </c>
-      <c r="R2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S2" t="s">
-        <v>67</v>
-      </c>
-      <c r="T2" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>205.0</v>
+        <v>43.0</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -2129,93 +2165,45 @@
         <v>52</v>
       </c>
       <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" t="s">
         <v>69</v>
       </c>
-      <c r="F3" t="s">
+      <c r="O3" t="s">
         <v>70</v>
       </c>
-      <c r="G3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O3" t="s">
-        <v>76</v>
-      </c>
       <c r="P3" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>78</v>
-      </c>
-      <c r="R3" t="s">
-        <v>79</v>
-      </c>
-      <c r="S3" t="s">
-        <v>80</v>
-      </c>
-      <c r="T3" t="s">
-        <v>79</v>
-      </c>
-      <c r="U3" t="s">
-        <v>81</v>
-      </c>
-      <c r="V3" t="s">
-        <v>82</v>
-      </c>
-      <c r="W3" t="s">
-        <v>83</v>
-      </c>
-      <c r="X3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD3" t="s">
         <v>64</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>169.0</v>
+        <v>32.0</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -2227,10 +2215,10 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s">
         <v>55</v>
@@ -2245,27 +2233,21 @@
         <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="N4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" t="s">
-        <v>96</v>
-      </c>
-      <c r="P4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>121.0</v>
+        <v>29.0</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -2277,13 +2259,13 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
         <v>56</v>
@@ -2295,39 +2277,21 @@
         <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="M5" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="N5" t="s">
-        <v>101</v>
-      </c>
-      <c r="O5" t="s">
-        <v>102</v>
-      </c>
-      <c r="P5" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>103</v>
-      </c>
-      <c r="R5" t="s">
-        <v>64</v>
-      </c>
-      <c r="S5" t="s">
-        <v>104</v>
-      </c>
-      <c r="T5" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>69.0</v>
+        <v>28.0</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -2339,13 +2303,13 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
         <v>56</v>
@@ -2357,27 +2321,39 @@
         <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q6" t="s">
         <v>88</v>
       </c>
-      <c r="M6" t="s">
-        <v>109</v>
-      </c>
-      <c r="N6" t="s">
-        <v>66</v>
-      </c>
-      <c r="O6" t="s">
-        <v>110</v>
-      </c>
-      <c r="P6" t="s">
-        <v>64</v>
+      <c r="R6" t="s">
+        <v>89</v>
+      </c>
+      <c r="S6" t="s">
+        <v>90</v>
+      </c>
+      <c r="T6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>63.0</v>
+        <v>27.0</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -2389,10 +2365,10 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
         <v>55</v>
@@ -2407,57 +2383,27 @@
         <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" t="s">
         <v>60</v>
       </c>
-      <c r="M7" t="s">
-        <v>114</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P7" t="s">
         <v>64</v>
-      </c>
-      <c r="O7" t="s">
-        <v>115</v>
-      </c>
-      <c r="P7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>116</v>
-      </c>
-      <c r="R7" t="s">
-        <v>66</v>
-      </c>
-      <c r="S7" t="s">
-        <v>117</v>
-      </c>
-      <c r="T7" t="s">
-        <v>64</v>
-      </c>
-      <c r="U7" t="s">
-        <v>118</v>
-      </c>
-      <c r="V7" t="s">
-        <v>119</v>
-      </c>
-      <c r="W7" t="s">
-        <v>120</v>
-      </c>
-      <c r="X7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>46.0</v>
+        <v>25.0</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -2469,13 +2415,13 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
         <v>56</v>
@@ -2487,33 +2433,39 @@
         <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="M8" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="N8" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="O8" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="Q8" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="R8" t="s">
-        <v>128</v>
+        <v>89</v>
+      </c>
+      <c r="S8" t="s">
+        <v>102</v>
+      </c>
+      <c r="T8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>43.0</v>
+        <v>25.0</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
@@ -2525,13 +2477,13 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F9" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="H9" t="s">
         <v>56</v>
@@ -2543,27 +2495,21 @@
         <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="M9" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="N9" t="s">
-        <v>60</v>
-      </c>
-      <c r="O9" t="s">
-        <v>135</v>
-      </c>
-      <c r="P9" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>32.0</v>
+        <v>23.0</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
@@ -2575,10 +2521,10 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="F10" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
         <v>55</v>
@@ -2593,21 +2539,57 @@
         <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="M10" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="N10" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="O10" t="s">
+        <v>115</v>
+      </c>
+      <c r="P10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>116</v>
+      </c>
+      <c r="R10" t="s">
+        <v>117</v>
+      </c>
+      <c r="S10" t="s">
+        <v>118</v>
+      </c>
+      <c r="T10" t="s">
+        <v>113</v>
+      </c>
+      <c r="U10" t="s">
+        <v>119</v>
+      </c>
+      <c r="V10" t="s">
+        <v>120</v>
+      </c>
+      <c r="W10" t="s">
+        <v>121</v>
+      </c>
+      <c r="X10" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>31.0</v>
+        <v>22.0</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -2619,10 +2601,10 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="F11" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>
@@ -2637,75 +2619,27 @@
         <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="L11" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="M11" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="N11" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="O11" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="P11" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>147</v>
-      </c>
-      <c r="R11" t="s">
-        <v>77</v>
-      </c>
-      <c r="S11" t="s">
-        <v>148</v>
-      </c>
-      <c r="T11" t="s">
-        <v>77</v>
-      </c>
-      <c r="U11" t="s">
-        <v>149</v>
-      </c>
-      <c r="V11" t="s">
-        <v>75</v>
-      </c>
-      <c r="W11" t="s">
-        <v>150</v>
-      </c>
-      <c r="X11" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>154</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>29.0</v>
+        <v>22.0</v>
       </c>
       <c r="B12" t="s">
         <v>50</v>
@@ -2717,13 +2651,13 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="F12" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
         <v>56</v>
@@ -2735,21 +2669,39 @@
         <v>58</v>
       </c>
       <c r="K12" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="M12" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="N12" t="s">
-        <v>161</v>
+        <v>80</v>
+      </c>
+      <c r="O12" t="s">
+        <v>134</v>
+      </c>
+      <c r="P12" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>136</v>
+      </c>
+      <c r="R12" t="s">
+        <v>137</v>
+      </c>
+      <c r="S12" t="s">
+        <v>138</v>
+      </c>
+      <c r="T12" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>28.0</v>
+        <v>21.0</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
@@ -2761,13 +2713,13 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="F13" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
         <v>56</v>
@@ -2779,39 +2731,21 @@
         <v>58</v>
       </c>
       <c r="K13" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="L13" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="M13" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="N13" t="s">
-        <v>82</v>
-      </c>
-      <c r="O13" t="s">
-        <v>166</v>
-      </c>
-      <c r="P13" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>167</v>
-      </c>
-      <c r="R13" t="s">
-        <v>145</v>
-      </c>
-      <c r="S13" t="s">
-        <v>168</v>
-      </c>
-      <c r="T13" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>27.0</v>
+        <v>21.0</v>
       </c>
       <c r="B14" t="s">
         <v>50</v>
@@ -2823,13 +2757,13 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="F14" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
         <v>56</v>
@@ -2841,27 +2775,27 @@
         <v>58</v>
       </c>
       <c r="K14" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="L14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M14" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="N14" t="s">
+        <v>107</v>
+      </c>
+      <c r="O14" t="s">
+        <v>148</v>
+      </c>
+      <c r="P14" t="s">
         <v>60</v>
-      </c>
-      <c r="O14" t="s">
-        <v>173</v>
-      </c>
-      <c r="P14" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>26.0</v>
+        <v>21.0</v>
       </c>
       <c r="B15" t="s">
         <v>50</v>
@@ -2873,10 +2807,10 @@
         <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="F15" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
         <v>58</v>
@@ -2891,39 +2825,45 @@
         <v>58</v>
       </c>
       <c r="K15" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="M15" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="N15" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="O15" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="P15" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="Q15" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="R15" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="S15" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="T15" t="s">
-        <v>145</v>
+        <v>84</v>
+      </c>
+      <c r="U15" t="s">
+        <v>157</v>
+      </c>
+      <c r="V15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="B16" t="s">
         <v>50</v>
@@ -2935,13 +2875,13 @@
         <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="F16" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="G16" t="s">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="H16" t="s">
         <v>56</v>
@@ -2953,21 +2893,21 @@
         <v>58</v>
       </c>
       <c r="K16" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="L16" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="M16" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="N16" t="s">
-        <v>186</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
@@ -2979,13 +2919,13 @@
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="F17" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s">
         <v>56</v>
@@ -2997,45 +2937,21 @@
         <v>58</v>
       </c>
       <c r="K17" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="L17" t="s">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="M17" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="N17" t="s">
-        <v>105</v>
-      </c>
-      <c r="O17" t="s">
-        <v>191</v>
-      </c>
-      <c r="P17" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>193</v>
-      </c>
-      <c r="R17" t="s">
-        <v>82</v>
-      </c>
-      <c r="S17" t="s">
-        <v>194</v>
-      </c>
-      <c r="T17" t="s">
-        <v>82</v>
-      </c>
-      <c r="U17" t="s">
-        <v>195</v>
-      </c>
-      <c r="V17" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>22.0</v>
+        <v>16.0</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
@@ -3047,13 +2963,13 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="F18" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H18" t="s">
         <v>56</v>
@@ -3065,27 +2981,27 @@
         <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="L18" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="M18" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="N18" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="O18" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="P18" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>22.0</v>
+        <v>13.0</v>
       </c>
       <c r="B19" t="s">
         <v>50</v>
@@ -3097,13 +3013,13 @@
         <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="F19" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>173</v>
       </c>
       <c r="H19" t="s">
         <v>56</v>
@@ -3115,39 +3031,39 @@
         <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="M19" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="N19" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="O19" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="P19" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="Q19" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="R19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S19" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="T19" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>21.0</v>
+        <v>11.0</v>
       </c>
       <c r="B20" t="s">
         <v>50</v>
@@ -3159,10 +3075,10 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="F20" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="G20" t="s">
         <v>52</v>
@@ -3177,21 +3093,75 @@
         <v>58</v>
       </c>
       <c r="K20" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="L20" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="M20" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="N20" t="s">
-        <v>161</v>
+        <v>184</v>
+      </c>
+      <c r="O20" t="s">
+        <v>185</v>
+      </c>
+      <c r="P20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>186</v>
+      </c>
+      <c r="R20" t="s">
+        <v>127</v>
+      </c>
+      <c r="S20" t="s">
+        <v>187</v>
+      </c>
+      <c r="T20" t="s">
+        <v>184</v>
+      </c>
+      <c r="U20" t="s">
+        <v>188</v>
+      </c>
+      <c r="V20" t="s">
+        <v>189</v>
+      </c>
+      <c r="W20" t="s">
+        <v>190</v>
+      </c>
+      <c r="X20" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>21.0</v>
+        <v>10.0</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
@@ -3203,13 +3173,13 @@
         <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="F21" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="G21" t="s">
-        <v>52</v>
+        <v>197</v>
       </c>
       <c r="H21" t="s">
         <v>56</v>
@@ -3221,27 +3191,75 @@
         <v>58</v>
       </c>
       <c r="K21" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="M21" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="N21" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="O21" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="P21" t="s">
-        <v>88</v>
+        <v>182</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>201</v>
+      </c>
+      <c r="R21" t="s">
+        <v>202</v>
+      </c>
+      <c r="S21" t="s">
+        <v>203</v>
+      </c>
+      <c r="T21" t="s">
+        <v>202</v>
+      </c>
+      <c r="U21" t="s">
+        <v>204</v>
+      </c>
+      <c r="V21" t="s">
+        <v>60</v>
+      </c>
+      <c r="W21" t="s">
+        <v>205</v>
+      </c>
+      <c r="X21" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>210</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21.0</v>
+        <v>8.0</v>
       </c>
       <c r="B22" t="s">
         <v>50</v>
@@ -3253,13 +3271,13 @@
         <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F22" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H22" t="s">
         <v>56</v>
@@ -3271,21 +3289,21 @@
         <v>58</v>
       </c>
       <c r="K22" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="L22" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="M22" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="N22" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>21.0</v>
+        <v>7.0</v>
       </c>
       <c r="B23" t="s">
         <v>50</v>
@@ -3297,13 +3315,13 @@
         <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F23" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G23" t="s">
-        <v>58</v>
+        <v>197</v>
       </c>
       <c r="H23" t="s">
         <v>56</v>
@@ -3315,45 +3333,21 @@
         <v>58</v>
       </c>
       <c r="K23" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="L23" t="s">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="M23" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="N23" t="s">
-        <v>64</v>
-      </c>
-      <c r="O23" t="s">
-        <v>225</v>
-      </c>
-      <c r="P23" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>226</v>
-      </c>
-      <c r="R23" t="s">
-        <v>145</v>
-      </c>
-      <c r="S23" t="s">
-        <v>227</v>
-      </c>
-      <c r="T23" t="s">
-        <v>82</v>
-      </c>
-      <c r="U23" t="s">
-        <v>228</v>
-      </c>
-      <c r="V23" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>17.0</v>
+        <v>7.0</v>
       </c>
       <c r="B24" t="s">
         <v>50</v>
@@ -3365,13 +3359,13 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F24" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="G24" t="s">
-        <v>55</v>
+        <v>197</v>
       </c>
       <c r="H24" t="s">
         <v>56</v>
@@ -3383,27 +3377,21 @@
         <v>58</v>
       </c>
       <c r="K24" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="L24" t="s">
+        <v>182</v>
+      </c>
+      <c r="M24" t="s">
+        <v>222</v>
+      </c>
+      <c r="N24" t="s">
         <v>60</v>
-      </c>
-      <c r="M24" t="s">
-        <v>232</v>
-      </c>
-      <c r="N24" t="s">
-        <v>64</v>
-      </c>
-      <c r="O24" t="s">
-        <v>233</v>
-      </c>
-      <c r="P24" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>17.0</v>
+        <v>7.0</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
@@ -3415,13 +3403,13 @@
         <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F25" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="G25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H25" t="s">
         <v>56</v>
@@ -3433,21 +3421,39 @@
         <v>58</v>
       </c>
       <c r="K25" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="L25" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M25" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="N25" t="s">
-        <v>66</v>
+        <v>113</v>
+      </c>
+      <c r="O25" t="s">
+        <v>227</v>
+      </c>
+      <c r="P25" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>229</v>
+      </c>
+      <c r="R25" t="s">
+        <v>209</v>
+      </c>
+      <c r="S25" t="s">
+        <v>230</v>
+      </c>
+      <c r="T25" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="B26" t="s">
         <v>50</v>
@@ -3459,10 +3465,10 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F26" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G26" t="s">
         <v>58</v>
@@ -3477,39 +3483,39 @@
         <v>58</v>
       </c>
       <c r="K26" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="L26" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="M26" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="N26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O26" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="P26" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="Q26" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="R26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S26" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="T26" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="B27" t="s">
         <v>50</v>
@@ -3521,13 +3527,13 @@
         <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F27" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G27" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H27" t="s">
         <v>56</v>
@@ -3539,27 +3545,51 @@
         <v>58</v>
       </c>
       <c r="K27" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="L27" t="s">
         <v>60</v>
       </c>
       <c r="M27" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="N27" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="O27" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="P27" t="s">
-        <v>66</v>
+        <v>80</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>243</v>
+      </c>
+      <c r="R27" t="s">
+        <v>117</v>
+      </c>
+      <c r="S27" t="s">
+        <v>244</v>
+      </c>
+      <c r="T27" t="s">
+        <v>87</v>
+      </c>
+      <c r="U27" t="s">
+        <v>245</v>
+      </c>
+      <c r="V27" t="s">
+        <v>87</v>
+      </c>
+      <c r="W27" t="s">
+        <v>246</v>
+      </c>
+      <c r="X27" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="B28" t="s">
         <v>50</v>
@@ -3571,45 +3601,45 @@
         <v>52</v>
       </c>
       <c r="E28" t="s">
+        <v>247</v>
+      </c>
+      <c r="F28" t="s">
+        <v>248</v>
+      </c>
+      <c r="G28" t="s">
+        <v>249</v>
+      </c>
+      <c r="H28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J28" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28" t="s">
         <v>250</v>
       </c>
-      <c r="F28" t="s">
+      <c r="L28" t="s">
         <v>251</v>
       </c>
-      <c r="G28" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" t="s">
-        <v>56</v>
-      </c>
-      <c r="I28" t="s">
-        <v>57</v>
-      </c>
-      <c r="J28" t="s">
-        <v>58</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="M28" t="s">
         <v>252</v>
       </c>
-      <c r="L28" t="s">
-        <v>151</v>
-      </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
+        <v>139</v>
+      </c>
+      <c r="O28" t="s">
         <v>253</v>
       </c>
-      <c r="N28" t="s">
-        <v>86</v>
-      </c>
-      <c r="O28" t="s">
-        <v>254</v>
-      </c>
       <c r="P28" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="B29" t="s">
         <v>50</v>
@@ -3621,45 +3651,51 @@
         <v>52</v>
       </c>
       <c r="E29" t="s">
+        <v>254</v>
+      </c>
+      <c r="F29" t="s">
         <v>255</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" t="s">
+        <v>57</v>
+      </c>
+      <c r="J29" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29" t="s">
         <v>256</v>
       </c>
-      <c r="G29" t="s">
-        <v>55</v>
-      </c>
-      <c r="H29" t="s">
-        <v>56</v>
-      </c>
-      <c r="I29" t="s">
-        <v>57</v>
-      </c>
-      <c r="J29" t="s">
-        <v>58</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
+        <v>107</v>
+      </c>
+      <c r="M29" t="s">
         <v>257</v>
       </c>
-      <c r="L29" t="s">
-        <v>88</v>
-      </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
+        <v>127</v>
+      </c>
+      <c r="O29" t="s">
         <v>258</v>
       </c>
-      <c r="N29" t="s">
-        <v>66</v>
-      </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q29" t="s">
         <v>259</v>
       </c>
-      <c r="P29" t="s">
-        <v>260</v>
+      <c r="R29" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="B30" t="s">
         <v>50</v>
@@ -3671,39 +3707,51 @@
         <v>52</v>
       </c>
       <c r="E30" t="s">
+        <v>260</v>
+      </c>
+      <c r="F30" t="s">
         <v>261</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30" t="s">
+        <v>58</v>
+      </c>
+      <c r="K30" t="s">
         <v>262</v>
       </c>
-      <c r="G30" t="s">
-        <v>55</v>
-      </c>
-      <c r="H30" t="s">
-        <v>56</v>
-      </c>
-      <c r="I30" t="s">
-        <v>57</v>
-      </c>
-      <c r="J30" t="s">
-        <v>58</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
+        <v>113</v>
+      </c>
+      <c r="M30" t="s">
         <v>263</v>
       </c>
-      <c r="L30" t="s">
-        <v>126</v>
-      </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
+        <v>87</v>
+      </c>
+      <c r="O30" t="s">
         <v>264</v>
       </c>
-      <c r="N30" t="s">
-        <v>66</v>
+      <c r="P30" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>265</v>
+      </c>
+      <c r="R30" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B31" t="s">
         <v>50</v>
@@ -3715,13 +3763,13 @@
         <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F31" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>249</v>
       </c>
       <c r="H31" t="s">
         <v>56</v>
@@ -3733,21 +3781,21 @@
         <v>58</v>
       </c>
       <c r="K31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L31" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N31" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B32" t="s">
         <v>50</v>
@@ -3759,13 +3807,13 @@
         <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F32" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G32" t="s">
-        <v>71</v>
+        <v>249</v>
       </c>
       <c r="H32" t="s">
         <v>56</v>
@@ -3777,16 +3825,22 @@
         <v>58</v>
       </c>
       <c r="K32" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L32" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="M32" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N32" t="s">
-        <v>88</v>
+        <v>69</v>
+      </c>
+      <c r="O32" t="s">
+        <v>274</v>
+      </c>
+      <c r="P32" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="33">
@@ -3803,13 +3857,13 @@
         <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F33" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G33" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="H33" t="s">
         <v>56</v>
@@ -3821,21 +3875,39 @@
         <v>58</v>
       </c>
       <c r="K33" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L33" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="M33" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N33" t="s">
-        <v>128</v>
+        <v>117</v>
+      </c>
+      <c r="O33" t="s">
+        <v>279</v>
+      </c>
+      <c r="P33" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>280</v>
+      </c>
+      <c r="R33" t="s">
+        <v>122</v>
+      </c>
+      <c r="S33" t="s">
+        <v>281</v>
+      </c>
+      <c r="T33" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B34" t="s">
         <v>50</v>
@@ -3847,13 +3919,13 @@
         <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F34" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G34" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="H34" t="s">
         <v>56</v>
@@ -3865,27 +3937,21 @@
         <v>58</v>
       </c>
       <c r="K34" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="L34" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="M34" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="N34" t="s">
-        <v>126</v>
-      </c>
-      <c r="O34" t="s">
-        <v>281</v>
-      </c>
-      <c r="P34" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B35" t="s">
         <v>50</v>
@@ -3897,13 +3963,13 @@
         <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F35" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G35" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H35" t="s">
         <v>56</v>
@@ -3915,28 +3981,16 @@
         <v>58</v>
       </c>
       <c r="K35" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L35" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M35" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="N35" t="s">
         <v>64</v>
-      </c>
-      <c r="O35" t="s">
-        <v>286</v>
-      </c>
-      <c r="P35" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>288</v>
-      </c>
-      <c r="R35" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="36">
@@ -3953,13 +4007,13 @@
         <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F36" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H36" t="s">
         <v>56</v>
@@ -3971,28 +4025,28 @@
         <v>58</v>
       </c>
       <c r="K36" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L36" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="M36" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N36" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="O36" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P36" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="Q36" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R36" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37">
@@ -4009,13 +4063,13 @@
         <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F37" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G37" t="s">
-        <v>55</v>
+        <v>249</v>
       </c>
       <c r="H37" t="s">
         <v>56</v>
@@ -4027,16 +4081,28 @@
         <v>58</v>
       </c>
       <c r="K37" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L37" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="M37" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N37" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="O37" t="s">
+        <v>300</v>
+      </c>
+      <c r="P37" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>301</v>
+      </c>
+      <c r="R37" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="38">
@@ -4053,10 +4119,10 @@
         <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F38" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G38" t="s">
         <v>55</v>
@@ -4071,28 +4137,16 @@
         <v>58</v>
       </c>
       <c r="K38" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L38" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M38" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="N38" t="s">
-        <v>62</v>
-      </c>
-      <c r="O38" t="s">
-        <v>303</v>
-      </c>
-      <c r="P38" t="s">
         <v>64</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>304</v>
-      </c>
-      <c r="R38" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="39">
@@ -4109,13 +4163,13 @@
         <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F39" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G39" t="s">
-        <v>58</v>
+        <v>197</v>
       </c>
       <c r="H39" t="s">
         <v>56</v>
@@ -4127,46 +4181,28 @@
         <v>58</v>
       </c>
       <c r="K39" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L39" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="M39" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N39" t="s">
-        <v>143</v>
+        <v>310</v>
       </c>
       <c r="O39" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P39" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="Q39" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="R39" t="s">
-        <v>62</v>
-      </c>
-      <c r="S39" t="s">
-        <v>311</v>
-      </c>
-      <c r="T39" t="s">
-        <v>145</v>
-      </c>
-      <c r="U39" t="s">
-        <v>312</v>
-      </c>
-      <c r="V39" t="s">
-        <v>105</v>
-      </c>
-      <c r="W39" t="s">
-        <v>313</v>
-      </c>
-      <c r="X39" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40">
@@ -4183,13 +4219,13 @@
         <v>52</v>
       </c>
       <c r="E40" t="s">
+        <v>313</v>
+      </c>
+      <c r="F40" t="s">
         <v>314</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>315</v>
-      </c>
-      <c r="G40" t="s">
-        <v>55</v>
       </c>
       <c r="H40" t="s">
         <v>56</v>
@@ -4204,18 +4240,24 @@
         <v>316</v>
       </c>
       <c r="L40" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="M40" t="s">
         <v>317</v>
       </c>
       <c r="N40" t="s">
-        <v>66</v>
+        <v>139</v>
+      </c>
+      <c r="O40" t="s">
+        <v>318</v>
+      </c>
+      <c r="P40" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B41" t="s">
         <v>50</v>
@@ -4227,13 +4269,13 @@
         <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F41" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G41" t="s">
-        <v>71</v>
+        <v>173</v>
       </c>
       <c r="H41" t="s">
         <v>56</v>
@@ -4245,33 +4287,27 @@
         <v>58</v>
       </c>
       <c r="K41" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L41" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M41" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N41" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="O41" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P41" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>324</v>
-      </c>
-      <c r="R41" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B42" t="s">
         <v>50</v>
@@ -4289,70 +4325,76 @@
         <v>326</v>
       </c>
       <c r="G42" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" t="s">
+        <v>56</v>
+      </c>
+      <c r="I42" t="s">
+        <v>57</v>
+      </c>
+      <c r="J42" t="s">
+        <v>58</v>
+      </c>
+      <c r="K42" t="s">
         <v>327</v>
       </c>
-      <c r="H42" t="s">
-        <v>56</v>
-      </c>
-      <c r="I42" t="s">
-        <v>57</v>
-      </c>
-      <c r="J42" t="s">
-        <v>58</v>
-      </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
+        <v>137</v>
+      </c>
+      <c r="M42" t="s">
         <v>328</v>
       </c>
-      <c r="L42" t="s">
-        <v>88</v>
-      </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
+        <v>60</v>
+      </c>
+      <c r="O42" t="s">
         <v>329</v>
       </c>
-      <c r="N42" t="s">
-        <v>192</v>
-      </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q42" t="s">
         <v>330</v>
       </c>
-      <c r="P42" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
+        <v>184</v>
+      </c>
+      <c r="S42" t="s">
         <v>331</v>
       </c>
-      <c r="R42" t="s">
-        <v>105</v>
-      </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
+        <v>184</v>
+      </c>
+      <c r="U42" t="s">
         <v>332</v>
       </c>
-      <c r="T42" t="s">
-        <v>287</v>
-      </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
+        <v>89</v>
+      </c>
+      <c r="W42" t="s">
         <v>333</v>
       </c>
-      <c r="V42" t="s">
-        <v>145</v>
-      </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y42" t="s">
         <v>334</v>
       </c>
-      <c r="X42" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA42" t="s">
         <v>335</v>
       </c>
-      <c r="Z42" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC42" t="s">
         <v>336</v>
       </c>
-      <c r="AB42" t="s">
-        <v>64</v>
+      <c r="AD42" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="43">
@@ -4375,34 +4417,28 @@
         <v>338</v>
       </c>
       <c r="G43" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" t="s">
+        <v>57</v>
+      </c>
+      <c r="J43" t="s">
+        <v>58</v>
+      </c>
+      <c r="K43" t="s">
         <v>339</v>
       </c>
-      <c r="H43" t="s">
-        <v>56</v>
-      </c>
-      <c r="I43" t="s">
-        <v>57</v>
-      </c>
-      <c r="J43" t="s">
-        <v>58</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
+        <v>107</v>
+      </c>
+      <c r="M43" t="s">
         <v>340</v>
       </c>
-      <c r="L43" t="s">
-        <v>341</v>
-      </c>
-      <c r="M43" t="s">
-        <v>342</v>
-      </c>
       <c r="N43" t="s">
-        <v>64</v>
-      </c>
-      <c r="O43" t="s">
-        <v>343</v>
-      </c>
-      <c r="P43" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44">
@@ -4419,51 +4455,51 @@
         <v>52</v>
       </c>
       <c r="E44" t="s">
+        <v>341</v>
+      </c>
+      <c r="F44" t="s">
+        <v>342</v>
+      </c>
+      <c r="G44" t="s">
+        <v>55</v>
+      </c>
+      <c r="H44" t="s">
+        <v>56</v>
+      </c>
+      <c r="I44" t="s">
+        <v>57</v>
+      </c>
+      <c r="J44" t="s">
+        <v>58</v>
+      </c>
+      <c r="K44" t="s">
+        <v>343</v>
+      </c>
+      <c r="L44" t="s">
+        <v>62</v>
+      </c>
+      <c r="M44" t="s">
         <v>344</v>
       </c>
-      <c r="F44" t="s">
+      <c r="N44" t="s">
+        <v>60</v>
+      </c>
+      <c r="O44" t="s">
         <v>345</v>
       </c>
-      <c r="G44" t="s">
-        <v>58</v>
-      </c>
-      <c r="H44" t="s">
-        <v>56</v>
-      </c>
-      <c r="I44" t="s">
-        <v>57</v>
-      </c>
-      <c r="J44" t="s">
-        <v>58</v>
-      </c>
-      <c r="K44" t="s">
+      <c r="P44" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q44" t="s">
         <v>346</v>
       </c>
-      <c r="L44" t="s">
+      <c r="R44" t="s">
         <v>64</v>
-      </c>
-      <c r="M44" t="s">
-        <v>347</v>
-      </c>
-      <c r="N44" t="s">
-        <v>145</v>
-      </c>
-      <c r="O44" t="s">
-        <v>348</v>
-      </c>
-      <c r="P44" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>349</v>
-      </c>
-      <c r="R44" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B45" t="s">
         <v>50</v>
@@ -4475,57 +4511,45 @@
         <v>52</v>
       </c>
       <c r="E45" t="s">
+        <v>347</v>
+      </c>
+      <c r="F45" t="s">
+        <v>348</v>
+      </c>
+      <c r="G45" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" t="s">
+        <v>56</v>
+      </c>
+      <c r="I45" t="s">
+        <v>57</v>
+      </c>
+      <c r="J45" t="s">
+        <v>58</v>
+      </c>
+      <c r="K45" t="s">
+        <v>349</v>
+      </c>
+      <c r="L45" t="s">
+        <v>189</v>
+      </c>
+      <c r="M45" t="s">
         <v>350</v>
       </c>
-      <c r="F45" t="s">
+      <c r="N45" t="s">
+        <v>78</v>
+      </c>
+      <c r="O45" t="s">
         <v>351</v>
       </c>
-      <c r="G45" t="s">
-        <v>58</v>
-      </c>
-      <c r="H45" t="s">
-        <v>56</v>
-      </c>
-      <c r="I45" t="s">
-        <v>57</v>
-      </c>
-      <c r="J45" t="s">
-        <v>58</v>
-      </c>
-      <c r="K45" t="s">
-        <v>352</v>
-      </c>
-      <c r="L45" t="s">
-        <v>64</v>
-      </c>
-      <c r="M45" t="s">
-        <v>353</v>
-      </c>
-      <c r="N45" t="s">
-        <v>145</v>
-      </c>
-      <c r="O45" t="s">
-        <v>354</v>
-      </c>
       <c r="P45" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>355</v>
-      </c>
-      <c r="R45" t="s">
-        <v>82</v>
-      </c>
-      <c r="S45" t="s">
-        <v>356</v>
-      </c>
-      <c r="T45" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B46" t="s">
         <v>50</v>
@@ -4537,13 +4561,13 @@
         <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F46" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G46" t="s">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="H46" t="s">
         <v>56</v>
@@ -4555,21 +4579,27 @@
         <v>58</v>
       </c>
       <c r="K46" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="L46" t="s">
-        <v>143</v>
+        <v>322</v>
       </c>
       <c r="M46" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="N46" t="s">
-        <v>128</v>
+        <v>87</v>
+      </c>
+      <c r="O46" t="s">
+        <v>356</v>
+      </c>
+      <c r="P46" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B47" t="s">
         <v>50</v>
@@ -4581,13 +4611,13 @@
         <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F47" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G47" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H47" t="s">
         <v>56</v>
@@ -4599,33 +4629,27 @@
         <v>58</v>
       </c>
       <c r="K47" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L47" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="M47" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="N47" t="s">
         <v>60</v>
       </c>
       <c r="O47" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="P47" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>366</v>
-      </c>
-      <c r="R47" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B48" t="s">
         <v>50</v>
@@ -4637,13 +4661,13 @@
         <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F48" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G48" t="s">
-        <v>339</v>
+        <v>52</v>
       </c>
       <c r="H48" t="s">
         <v>56</v>
@@ -4655,39 +4679,21 @@
         <v>58</v>
       </c>
       <c r="K48" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="L48" t="s">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="M48" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="N48" t="s">
-        <v>64</v>
-      </c>
-      <c r="O48" t="s">
-        <v>371</v>
-      </c>
-      <c r="P48" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>372</v>
-      </c>
-      <c r="R48" t="s">
-        <v>64</v>
-      </c>
-      <c r="S48" t="s">
-        <v>373</v>
-      </c>
-      <c r="T48" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
@@ -4699,13 +4705,13 @@
         <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="F49" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="G49" t="s">
-        <v>58</v>
+        <v>249</v>
       </c>
       <c r="H49" t="s">
         <v>56</v>
@@ -4717,45 +4723,21 @@
         <v>58</v>
       </c>
       <c r="K49" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="L49" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="M49" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="N49" t="s">
-        <v>64</v>
-      </c>
-      <c r="O49" t="s">
-        <v>378</v>
-      </c>
-      <c r="P49" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>379</v>
-      </c>
-      <c r="R49" t="s">
-        <v>64</v>
-      </c>
-      <c r="S49" t="s">
-        <v>380</v>
-      </c>
-      <c r="T49" t="s">
-        <v>145</v>
-      </c>
-      <c r="U49" t="s">
-        <v>381</v>
-      </c>
-      <c r="V49" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B50" t="s">
         <v>50</v>
@@ -4767,13 +4749,13 @@
         <v>52</v>
       </c>
       <c r="E50" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="F50" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="G50" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="H50" t="s">
         <v>56</v>
@@ -4785,22 +4767,28 @@
         <v>58</v>
       </c>
       <c r="K50" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="L50" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="M50" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="N50" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="O50" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="P50" t="s">
-        <v>88</v>
+        <v>375</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>376</v>
+      </c>
+      <c r="R50" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="51">
@@ -4817,13 +4805,13 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F51" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="G51" t="s">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="H51" t="s">
         <v>56</v>
@@ -4835,40 +4823,22 @@
         <v>58</v>
       </c>
       <c r="K51" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="L51" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="M51" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="N51" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="O51" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="P51" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>392</v>
-      </c>
-      <c r="R51" t="s">
-        <v>151</v>
-      </c>
-      <c r="S51" t="s">
-        <v>393</v>
-      </c>
-      <c r="T51" t="s">
-        <v>145</v>
-      </c>
-      <c r="U51" t="s">
-        <v>394</v>
-      </c>
-      <c r="V51" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52">
@@ -4885,13 +4855,13 @@
         <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="F52" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="G52" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H52" t="s">
         <v>56</v>
@@ -4903,22 +4873,16 @@
         <v>58</v>
       </c>
       <c r="K52" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="L52" t="s">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="M52" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="N52" t="s">
-        <v>151</v>
-      </c>
-      <c r="O52" t="s">
-        <v>399</v>
-      </c>
-      <c r="P52" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53">
@@ -4935,13 +4899,13 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="F53" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="G53" t="s">
-        <v>339</v>
+        <v>388</v>
       </c>
       <c r="H53" t="s">
         <v>56</v>
@@ -4953,22 +4917,58 @@
         <v>58</v>
       </c>
       <c r="K53" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="L53" t="s">
-        <v>341</v>
+        <v>60</v>
       </c>
       <c r="M53" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="N53" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="O53" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="P53" t="s">
-        <v>105</v>
+        <v>113</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>392</v>
+      </c>
+      <c r="R53" t="s">
+        <v>113</v>
+      </c>
+      <c r="S53" t="s">
+        <v>393</v>
+      </c>
+      <c r="T53" t="s">
+        <v>153</v>
+      </c>
+      <c r="U53" t="s">
+        <v>394</v>
+      </c>
+      <c r="V53" t="s">
+        <v>87</v>
+      </c>
+      <c r="W53" t="s">
+        <v>395</v>
+      </c>
+      <c r="X53" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>397</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="54">
@@ -4985,10 +4985,10 @@
         <v>52</v>
       </c>
       <c r="E54" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F54" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G54" t="s">
         <v>52</v>
@@ -5003,22 +5003,16 @@
         <v>58</v>
       </c>
       <c r="K54" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="L54" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M54" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="N54" t="s">
-        <v>82</v>
-      </c>
-      <c r="O54" t="s">
-        <v>409</v>
-      </c>
-      <c r="P54" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55">
@@ -5035,13 +5029,13 @@
         <v>52</v>
       </c>
       <c r="E55" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="F55" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="G55" t="s">
-        <v>52</v>
+        <v>197</v>
       </c>
       <c r="H55" t="s">
         <v>56</v>
@@ -5053,16 +5047,16 @@
         <v>58</v>
       </c>
       <c r="K55" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="L55" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="M55" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="N55" t="s">
-        <v>128</v>
+        <v>406</v>
       </c>
     </row>
     <row r="56">
@@ -5079,34 +5073,58 @@
         <v>52</v>
       </c>
       <c r="E56" t="s">
+        <v>407</v>
+      </c>
+      <c r="F56" t="s">
+        <v>408</v>
+      </c>
+      <c r="G56" t="s">
+        <v>58</v>
+      </c>
+      <c r="H56" t="s">
+        <v>56</v>
+      </c>
+      <c r="I56" t="s">
+        <v>57</v>
+      </c>
+      <c r="J56" t="s">
+        <v>58</v>
+      </c>
+      <c r="K56" t="s">
+        <v>409</v>
+      </c>
+      <c r="L56" t="s">
+        <v>60</v>
+      </c>
+      <c r="M56" t="s">
+        <v>410</v>
+      </c>
+      <c r="N56" t="s">
+        <v>113</v>
+      </c>
+      <c r="O56" t="s">
+        <v>411</v>
+      </c>
+      <c r="P56" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>412</v>
+      </c>
+      <c r="R56" t="s">
+        <v>139</v>
+      </c>
+      <c r="S56" t="s">
+        <v>413</v>
+      </c>
+      <c r="T56" t="s">
+        <v>84</v>
+      </c>
+      <c r="U56" t="s">
         <v>414</v>
       </c>
-      <c r="F56" t="s">
-        <v>415</v>
-      </c>
-      <c r="G56" t="s">
-        <v>124</v>
-      </c>
-      <c r="H56" t="s">
-        <v>56</v>
-      </c>
-      <c r="I56" t="s">
-        <v>57</v>
-      </c>
-      <c r="J56" t="s">
-        <v>58</v>
-      </c>
-      <c r="K56" t="s">
-        <v>416</v>
-      </c>
-      <c r="L56" t="s">
-        <v>126</v>
-      </c>
-      <c r="M56" t="s">
-        <v>417</v>
-      </c>
-      <c r="N56" t="s">
-        <v>126</v>
+      <c r="V56" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="57">
@@ -5123,40 +5141,40 @@
         <v>52</v>
       </c>
       <c r="E57" t="s">
+        <v>415</v>
+      </c>
+      <c r="F57" t="s">
+        <v>416</v>
+      </c>
+      <c r="G57" t="s">
+        <v>197</v>
+      </c>
+      <c r="H57" t="s">
+        <v>56</v>
+      </c>
+      <c r="I57" t="s">
+        <v>57</v>
+      </c>
+      <c r="J57" t="s">
+        <v>58</v>
+      </c>
+      <c r="K57" t="s">
+        <v>417</v>
+      </c>
+      <c r="L57" t="s">
+        <v>182</v>
+      </c>
+      <c r="M57" t="s">
         <v>418</v>
       </c>
-      <c r="F57" t="s">
+      <c r="N57" t="s">
+        <v>84</v>
+      </c>
+      <c r="O57" t="s">
         <v>419</v>
       </c>
-      <c r="G57" t="s">
-        <v>339</v>
-      </c>
-      <c r="H57" t="s">
-        <v>56</v>
-      </c>
-      <c r="I57" t="s">
-        <v>57</v>
-      </c>
-      <c r="J57" t="s">
-        <v>58</v>
-      </c>
-      <c r="K57" t="s">
-        <v>420</v>
-      </c>
-      <c r="L57" t="s">
-        <v>64</v>
-      </c>
-      <c r="M57" t="s">
-        <v>421</v>
-      </c>
-      <c r="N57" t="s">
-        <v>66</v>
-      </c>
-      <c r="O57" t="s">
-        <v>422</v>
-      </c>
       <c r="P57" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58">
@@ -5173,45 +5191,45 @@
         <v>52</v>
       </c>
       <c r="E58" t="s">
+        <v>420</v>
+      </c>
+      <c r="F58" t="s">
+        <v>421</v>
+      </c>
+      <c r="G58" t="s">
+        <v>52</v>
+      </c>
+      <c r="H58" t="s">
+        <v>56</v>
+      </c>
+      <c r="I58" t="s">
+        <v>57</v>
+      </c>
+      <c r="J58" t="s">
+        <v>58</v>
+      </c>
+      <c r="K58" t="s">
+        <v>422</v>
+      </c>
+      <c r="L58" t="s">
+        <v>189</v>
+      </c>
+      <c r="M58" t="s">
         <v>423</v>
       </c>
-      <c r="F58" t="s">
+      <c r="N58" t="s">
+        <v>107</v>
+      </c>
+      <c r="O58" t="s">
         <v>424</v>
       </c>
-      <c r="G58" t="s">
-        <v>339</v>
-      </c>
-      <c r="H58" t="s">
-        <v>56</v>
-      </c>
-      <c r="I58" t="s">
-        <v>57</v>
-      </c>
-      <c r="J58" t="s">
-        <v>58</v>
-      </c>
-      <c r="K58" t="s">
-        <v>425</v>
-      </c>
-      <c r="L58" t="s">
-        <v>82</v>
-      </c>
-      <c r="M58" t="s">
-        <v>426</v>
-      </c>
-      <c r="N58" t="s">
-        <v>64</v>
-      </c>
-      <c r="O58" t="s">
-        <v>427</v>
-      </c>
       <c r="P58" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B59" t="s">
         <v>50</v>
@@ -5223,39 +5241,63 @@
         <v>52</v>
       </c>
       <c r="E59" t="s">
+        <v>425</v>
+      </c>
+      <c r="F59" t="s">
+        <v>426</v>
+      </c>
+      <c r="G59" t="s">
+        <v>52</v>
+      </c>
+      <c r="H59" t="s">
+        <v>56</v>
+      </c>
+      <c r="I59" t="s">
+        <v>57</v>
+      </c>
+      <c r="J59" t="s">
+        <v>58</v>
+      </c>
+      <c r="K59" t="s">
+        <v>427</v>
+      </c>
+      <c r="L59" t="s">
+        <v>78</v>
+      </c>
+      <c r="M59" t="s">
         <v>428</v>
       </c>
-      <c r="F59" t="s">
+      <c r="N59" t="s">
+        <v>189</v>
+      </c>
+      <c r="O59" t="s">
         <v>429</v>
       </c>
-      <c r="G59" t="s">
-        <v>55</v>
-      </c>
-      <c r="H59" t="s">
-        <v>56</v>
-      </c>
-      <c r="I59" t="s">
-        <v>57</v>
-      </c>
-      <c r="J59" t="s">
-        <v>58</v>
-      </c>
-      <c r="K59" t="s">
+      <c r="P59" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q59" t="s">
         <v>430</v>
       </c>
-      <c r="L59" t="s">
-        <v>88</v>
-      </c>
-      <c r="M59" t="s">
+      <c r="R59" t="s">
+        <v>89</v>
+      </c>
+      <c r="S59" t="s">
         <v>431</v>
       </c>
-      <c r="N59" t="s">
-        <v>66</v>
+      <c r="T59" t="s">
+        <v>189</v>
+      </c>
+      <c r="U59" t="s">
+        <v>432</v>
+      </c>
+      <c r="V59" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B60" t="s">
         <v>50</v>
@@ -5267,10 +5309,10 @@
         <v>52</v>
       </c>
       <c r="E60" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F60" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G60" t="s">
         <v>52</v>
@@ -5285,21 +5327,27 @@
         <v>58</v>
       </c>
       <c r="K60" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L60" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="M60" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N60" t="s">
-        <v>128</v>
+        <v>209</v>
+      </c>
+      <c r="O60" t="s">
+        <v>437</v>
+      </c>
+      <c r="P60" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B61" t="s">
         <v>50</v>
@@ -5311,13 +5359,13 @@
         <v>52</v>
       </c>
       <c r="E61" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F61" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G61" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H61" t="s">
         <v>56</v>
@@ -5329,21 +5377,27 @@
         <v>58</v>
       </c>
       <c r="K61" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L61" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M61" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="N61" t="s">
-        <v>440</v>
+        <v>60</v>
+      </c>
+      <c r="O61" t="s">
+        <v>442</v>
+      </c>
+      <c r="P61" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B62" t="s">
         <v>50</v>
@@ -5355,10 +5409,10 @@
         <v>52</v>
       </c>
       <c r="E62" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F62" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G62" t="s">
         <v>52</v>
@@ -5373,22 +5427,58 @@
         <v>58</v>
       </c>
       <c r="K62" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L62" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="M62" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="N62" t="s">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="O62" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="P62" t="s">
-        <v>128</v>
+        <v>107</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>448</v>
+      </c>
+      <c r="R62" t="s">
+        <v>89</v>
+      </c>
+      <c r="S62" t="s">
+        <v>449</v>
+      </c>
+      <c r="T62" t="s">
+        <v>189</v>
+      </c>
+      <c r="U62" t="s">
+        <v>450</v>
+      </c>
+      <c r="V62" t="s">
+        <v>113</v>
+      </c>
+      <c r="W62" t="s">
+        <v>451</v>
+      </c>
+      <c r="X62" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>452</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>453</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="63">
@@ -5405,10 +5495,10 @@
         <v>52</v>
       </c>
       <c r="E63" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="F63" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="G63" t="s">
         <v>52</v>
@@ -5423,22 +5513,16 @@
         <v>58</v>
       </c>
       <c r="K63" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="L63" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="M63" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="N63" t="s">
-        <v>88</v>
-      </c>
-      <c r="O63" t="s">
-        <v>450</v>
-      </c>
-      <c r="P63" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64">
@@ -5455,10 +5539,10 @@
         <v>52</v>
       </c>
       <c r="E64" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="F64" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="G64" t="s">
         <v>52</v>
@@ -5473,58 +5557,28 @@
         <v>58</v>
       </c>
       <c r="K64" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="L64" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="M64" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="N64" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="O64" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="P64" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="Q64" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="R64" t="s">
-        <v>151</v>
-      </c>
-      <c r="S64" t="s">
-        <v>457</v>
-      </c>
-      <c r="T64" t="s">
-        <v>151</v>
-      </c>
-      <c r="U64" t="s">
-        <v>458</v>
-      </c>
-      <c r="V64" t="s">
-        <v>64</v>
-      </c>
-      <c r="W64" t="s">
-        <v>459</v>
-      </c>
-      <c r="X64" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>460</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA64" t="s">
-        <v>461</v>
-      </c>
-      <c r="AB64" t="s">
-        <v>128</v>
+        <v>251</v>
       </c>
     </row>
     <row r="65">
@@ -5541,10 +5595,10 @@
         <v>52</v>
       </c>
       <c r="E65" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F65" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="G65" t="s">
         <v>52</v>
@@ -5559,16 +5613,16 @@
         <v>58</v>
       </c>
       <c r="K65" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L65" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="M65" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="N65" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66">
@@ -5585,10 +5639,10 @@
         <v>52</v>
       </c>
       <c r="E66" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F66" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G66" t="s">
         <v>52</v>
@@ -5603,28 +5657,16 @@
         <v>58</v>
       </c>
       <c r="K66" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="L66" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="M66" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="N66" t="s">
-        <v>82</v>
-      </c>
-      <c r="O66" t="s">
-        <v>470</v>
-      </c>
-      <c r="P66" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>471</v>
-      </c>
-      <c r="R66" t="s">
-        <v>472</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67">
@@ -5641,34 +5683,34 @@
         <v>52</v>
       </c>
       <c r="E67" t="s">
+        <v>472</v>
+      </c>
+      <c r="F67" t="s">
         <v>473</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
+        <v>55</v>
+      </c>
+      <c r="H67" t="s">
+        <v>56</v>
+      </c>
+      <c r="I67" t="s">
+        <v>57</v>
+      </c>
+      <c r="J67" t="s">
+        <v>58</v>
+      </c>
+      <c r="K67" t="s">
         <v>474</v>
       </c>
-      <c r="G67" t="s">
-        <v>52</v>
-      </c>
-      <c r="H67" t="s">
-        <v>56</v>
-      </c>
-      <c r="I67" t="s">
-        <v>57</v>
-      </c>
-      <c r="J67" t="s">
-        <v>58</v>
-      </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
+        <v>60</v>
+      </c>
+      <c r="M67" t="s">
         <v>475</v>
       </c>
-      <c r="L67" t="s">
-        <v>151</v>
-      </c>
-      <c r="M67" t="s">
-        <v>476</v>
-      </c>
       <c r="N67" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68">
@@ -5685,34 +5727,34 @@
         <v>52</v>
       </c>
       <c r="E68" t="s">
+        <v>476</v>
+      </c>
+      <c r="F68" t="s">
         <v>477</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
+        <v>197</v>
+      </c>
+      <c r="H68" t="s">
+        <v>56</v>
+      </c>
+      <c r="I68" t="s">
+        <v>57</v>
+      </c>
+      <c r="J68" t="s">
+        <v>58</v>
+      </c>
+      <c r="K68" t="s">
         <v>478</v>
       </c>
-      <c r="G68" t="s">
-        <v>52</v>
-      </c>
-      <c r="H68" t="s">
-        <v>56</v>
-      </c>
-      <c r="I68" t="s">
-        <v>57</v>
-      </c>
-      <c r="J68" t="s">
-        <v>58</v>
-      </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
+        <v>182</v>
+      </c>
+      <c r="M68" t="s">
         <v>479</v>
       </c>
-      <c r="L68" t="s">
-        <v>151</v>
-      </c>
-      <c r="M68" t="s">
-        <v>480</v>
-      </c>
       <c r="N68" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69">
@@ -5729,34 +5771,40 @@
         <v>52</v>
       </c>
       <c r="E69" t="s">
+        <v>480</v>
+      </c>
+      <c r="F69" t="s">
         <v>481</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
+        <v>173</v>
+      </c>
+      <c r="H69" t="s">
+        <v>56</v>
+      </c>
+      <c r="I69" t="s">
+        <v>57</v>
+      </c>
+      <c r="J69" t="s">
+        <v>58</v>
+      </c>
+      <c r="K69" t="s">
         <v>482</v>
       </c>
-      <c r="G69" t="s">
-        <v>55</v>
-      </c>
-      <c r="H69" t="s">
-        <v>56</v>
-      </c>
-      <c r="I69" t="s">
-        <v>57</v>
-      </c>
-      <c r="J69" t="s">
-        <v>58</v>
-      </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
+        <v>251</v>
+      </c>
+      <c r="M69" t="s">
         <v>483</v>
       </c>
-      <c r="L69" t="s">
-        <v>88</v>
-      </c>
-      <c r="M69" t="s">
+      <c r="N69" t="s">
+        <v>60</v>
+      </c>
+      <c r="O69" t="s">
         <v>484</v>
       </c>
-      <c r="N69" t="s">
-        <v>66</v>
+      <c r="P69" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="70">
@@ -5779,7 +5827,7 @@
         <v>486</v>
       </c>
       <c r="G70" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H70" t="s">
         <v>56</v>
@@ -5794,13 +5842,25 @@
         <v>487</v>
       </c>
       <c r="L70" t="s">
-        <v>73</v>
+        <v>488</v>
       </c>
       <c r="M70" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N70" t="s">
-        <v>84</v>
+        <v>490</v>
+      </c>
+      <c r="O70" t="s">
+        <v>491</v>
+      </c>
+      <c r="P70" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>492</v>
+      </c>
+      <c r="R70" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="71">
@@ -5817,13 +5877,13 @@
         <v>52</v>
       </c>
       <c r="E71" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="F71" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="G71" t="s">
-        <v>339</v>
+        <v>173</v>
       </c>
       <c r="H71" t="s">
         <v>56</v>
@@ -5835,22 +5895,22 @@
         <v>58</v>
       </c>
       <c r="K71" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="L71" t="s">
-        <v>472</v>
+        <v>113</v>
       </c>
       <c r="M71" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="N71" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="O71" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="P71" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72">
@@ -5867,10 +5927,10 @@
         <v>52</v>
       </c>
       <c r="E72" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="F72" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="G72" t="s">
         <v>52</v>
@@ -5885,28 +5945,16 @@
         <v>58</v>
       </c>
       <c r="K72" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="L72" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="M72" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="N72" t="s">
-        <v>498</v>
-      </c>
-      <c r="O72" t="s">
-        <v>499</v>
-      </c>
-      <c r="P72" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>501</v>
-      </c>
-      <c r="R72" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73">
@@ -5929,7 +5977,7 @@
         <v>503</v>
       </c>
       <c r="G73" t="s">
-        <v>52</v>
+        <v>249</v>
       </c>
       <c r="H73" t="s">
         <v>56</v>
@@ -5944,13 +5992,19 @@
         <v>504</v>
       </c>
       <c r="L73" t="s">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="M73" t="s">
         <v>505</v>
       </c>
       <c r="N73" t="s">
-        <v>64</v>
+        <v>69</v>
+      </c>
+      <c r="O73" t="s">
+        <v>506</v>
+      </c>
+      <c r="P73" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="74">
@@ -5967,13 +6021,13 @@
         <v>52</v>
       </c>
       <c r="E74" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F74" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G74" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="H74" t="s">
         <v>56</v>
@@ -5985,22 +6039,28 @@
         <v>58</v>
       </c>
       <c r="K74" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L74" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="M74" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N74" t="s">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="O74" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="P74" t="s">
-        <v>128</v>
+        <v>189</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>512</v>
+      </c>
+      <c r="R74" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="75">
@@ -6017,10 +6077,10 @@
         <v>52</v>
       </c>
       <c r="E75" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F75" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G75" t="s">
         <v>52</v>
@@ -6035,28 +6095,22 @@
         <v>58</v>
       </c>
       <c r="K75" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="L75" t="s">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="M75" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="N75" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="O75" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="P75" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>516</v>
-      </c>
-      <c r="R75" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76">
@@ -6073,13 +6127,13 @@
         <v>52</v>
       </c>
       <c r="E76" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F76" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G76" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="H76" t="s">
         <v>56</v>
@@ -6091,22 +6145,16 @@
         <v>58</v>
       </c>
       <c r="K76" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L76" t="s">
-        <v>472</v>
+        <v>189</v>
       </c>
       <c r="M76" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N76" t="s">
-        <v>128</v>
-      </c>
-      <c r="O76" t="s">
-        <v>521</v>
-      </c>
-      <c r="P76" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77">
@@ -6129,7 +6177,7 @@
         <v>523</v>
       </c>
       <c r="G77" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H77" t="s">
         <v>56</v>
@@ -6144,19 +6192,19 @@
         <v>524</v>
       </c>
       <c r="L77" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="M77" t="s">
         <v>525</v>
       </c>
       <c r="N77" t="s">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="O77" t="s">
         <v>526</v>
       </c>
       <c r="P77" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78">
@@ -6179,7 +6227,7 @@
         <v>528</v>
       </c>
       <c r="G78" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H78" t="s">
         <v>56</v>
@@ -6194,13 +6242,19 @@
         <v>529</v>
       </c>
       <c r="L78" t="s">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="M78" t="s">
         <v>530</v>
       </c>
       <c r="N78" t="s">
-        <v>128</v>
+        <v>64</v>
+      </c>
+      <c r="O78" t="s">
+        <v>531</v>
+      </c>
+      <c r="P78" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="79">
@@ -6217,13 +6271,13 @@
         <v>52</v>
       </c>
       <c r="E79" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F79" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G79" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H79" t="s">
         <v>56</v>
@@ -6235,22 +6289,16 @@
         <v>58</v>
       </c>
       <c r="K79" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L79" t="s">
-        <v>88</v>
+        <v>535</v>
       </c>
       <c r="M79" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="N79" t="s">
-        <v>62</v>
-      </c>
-      <c r="O79" t="s">
-        <v>535</v>
-      </c>
-      <c r="P79" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80">
@@ -6267,10 +6315,10 @@
         <v>52</v>
       </c>
       <c r="E80" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F80" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G80" t="s">
         <v>52</v>
@@ -6285,16 +6333,22 @@
         <v>58</v>
       </c>
       <c r="K80" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L80" t="s">
-        <v>539</v>
+        <v>107</v>
       </c>
       <c r="M80" t="s">
         <v>540</v>
       </c>
       <c r="N80" t="s">
-        <v>82</v>
+        <v>113</v>
+      </c>
+      <c r="O80" t="s">
+        <v>541</v>
+      </c>
+      <c r="P80" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="81">
@@ -6311,13 +6365,13 @@
         <v>52</v>
       </c>
       <c r="E81" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F81" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G81" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H81" t="s">
         <v>56</v>
@@ -6329,22 +6383,34 @@
         <v>58</v>
       </c>
       <c r="K81" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L81" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="M81" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N81" t="s">
-        <v>64</v>
+        <v>209</v>
       </c>
       <c r="O81" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="P81" t="s">
-        <v>128</v>
+        <v>113</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>547</v>
+      </c>
+      <c r="R81" t="s">
+        <v>107</v>
+      </c>
+      <c r="S81" t="s">
+        <v>548</v>
+      </c>
+      <c r="T81" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="82">
@@ -6361,10 +6427,10 @@
         <v>52</v>
       </c>
       <c r="E82" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="F82" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="G82" t="s">
         <v>58</v>
@@ -6379,40 +6445,40 @@
         <v>58</v>
       </c>
       <c r="K82" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="L82" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="M82" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="N82" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="O82" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="P82" t="s">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="Q82" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="R82" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="S82" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="T82" t="s">
-        <v>472</v>
+        <v>89</v>
       </c>
       <c r="U82" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="V82" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83">
@@ -6429,10 +6495,10 @@
         <v>52</v>
       </c>
       <c r="E83" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="F83" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="G83" t="s">
         <v>58</v>
@@ -6447,16 +6513,16 @@
         <v>58</v>
       </c>
       <c r="K83" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="L83" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="M83" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="N83" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84">
@@ -6473,13 +6539,13 @@
         <v>52</v>
       </c>
       <c r="E84" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="F84" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="G84" t="s">
-        <v>71</v>
+        <v>197</v>
       </c>
       <c r="H84" t="s">
         <v>56</v>
@@ -6491,22 +6557,22 @@
         <v>58</v>
       </c>
       <c r="K84" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="L84" t="s">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="M84" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="N84" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="O84" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="P84" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85">
@@ -6523,10 +6589,10 @@
         <v>52</v>
       </c>
       <c r="E85" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="F85" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="G85" t="s">
         <v>58</v>
@@ -6541,16 +6607,16 @@
         <v>58</v>
       </c>
       <c r="K85" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="L85" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M85" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="N85" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86">
@@ -6567,13 +6633,13 @@
         <v>52</v>
       </c>
       <c r="E86" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="F86" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="G86" t="s">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="H86" t="s">
         <v>56</v>
@@ -6585,16 +6651,16 @@
         <v>58</v>
       </c>
       <c r="K86" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="L86" t="s">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="M86" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="N86" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87">
@@ -6611,10 +6677,10 @@
         <v>52</v>
       </c>
       <c r="E87" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="F87" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="G87" t="s">
         <v>52</v>
@@ -6629,22 +6695,22 @@
         <v>58</v>
       </c>
       <c r="K87" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="L87" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="M87" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="N87" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="O87" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="P87" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88">
@@ -6661,10 +6727,10 @@
         <v>52</v>
       </c>
       <c r="E88" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="F88" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="G88" t="s">
         <v>58</v>
@@ -6679,22 +6745,22 @@
         <v>58</v>
       </c>
       <c r="K88" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="L88" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M88" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="N88" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="O88" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="P88" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89">
@@ -6711,13 +6777,13 @@
         <v>52</v>
       </c>
       <c r="E89" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="F89" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="G89" t="s">
-        <v>583</v>
+        <v>315</v>
       </c>
       <c r="H89" t="s">
         <v>56</v>
@@ -6729,16 +6795,16 @@
         <v>58</v>
       </c>
       <c r="K89" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="L89" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M89" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="N89" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="90">
@@ -6755,10 +6821,10 @@
         <v>52</v>
       </c>
       <c r="E90" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F90" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="G90" t="s">
         <v>58</v>
@@ -6773,16 +6839,16 @@
         <v>58</v>
       </c>
       <c r="K90" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="L90" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M90" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="N90" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91">
@@ -6799,10 +6865,10 @@
         <v>52</v>
       </c>
       <c r="E91" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="F91" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="G91" t="s">
         <v>52</v>
@@ -6817,22 +6883,22 @@
         <v>58</v>
       </c>
       <c r="K91" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="L91" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="M91" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="N91" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="O91" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="P91" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92">
@@ -6849,10 +6915,10 @@
         <v>52</v>
       </c>
       <c r="E92" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F92" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G92" t="s">
         <v>58</v>
@@ -6867,16 +6933,16 @@
         <v>58</v>
       </c>
       <c r="K92" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="L92" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="M92" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="N92" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93">
@@ -6893,13 +6959,13 @@
         <v>52</v>
       </c>
       <c r="E93" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F93" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="G93" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H93" t="s">
         <v>56</v>
@@ -6911,16 +6977,22 @@
         <v>58</v>
       </c>
       <c r="K93" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="L93" t="s">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="M93" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="N93" t="s">
-        <v>91</v>
+        <v>605</v>
+      </c>
+      <c r="O93" t="s">
+        <v>606</v>
+      </c>
+      <c r="P93" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="94">
@@ -6937,13 +7009,13 @@
         <v>52</v>
       </c>
       <c r="E94" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="F94" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="G94" t="s">
-        <v>583</v>
+        <v>52</v>
       </c>
       <c r="H94" t="s">
         <v>56</v>
@@ -6955,72 +7027,184 @@
         <v>58</v>
       </c>
       <c r="K94" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="L94" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="M94" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="N94" t="s">
-        <v>128</v>
-      </c>
-      <c r="O94" t="s">
-        <v>607</v>
-      </c>
-      <c r="P94" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>50</v>
+      </c>
+      <c r="C95" t="s">
+        <v>51</v>
+      </c>
+      <c r="D95" t="s">
+        <v>52</v>
+      </c>
+      <c r="E95" t="s">
+        <v>611</v>
+      </c>
+      <c r="F95" t="s">
+        <v>612</v>
+      </c>
+      <c r="G95" t="s">
+        <v>55</v>
+      </c>
+      <c r="H95" t="s">
+        <v>56</v>
+      </c>
+      <c r="I95" t="s">
+        <v>57</v>
+      </c>
+      <c r="J95" t="s">
+        <v>58</v>
+      </c>
+      <c r="K95" t="s">
+        <v>613</v>
+      </c>
+      <c r="L95" t="s">
+        <v>60</v>
+      </c>
+      <c r="M95" t="s">
+        <v>614</v>
+      </c>
+      <c r="N95" t="s">
+        <v>64</v>
+      </c>
+      <c r="O95" t="s">
+        <v>615</v>
+      </c>
+      <c r="P95" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
         <v>1.0</v>
       </c>
-      <c r="B95" t="s">
-        <v>50</v>
-      </c>
-      <c r="C95" t="s">
-        <v>51</v>
-      </c>
-      <c r="D95" t="s">
-        <v>52</v>
-      </c>
-      <c r="E95" t="s">
-        <v>608</v>
-      </c>
-      <c r="F95" t="s">
-        <v>609</v>
-      </c>
-      <c r="G95" t="s">
-        <v>52</v>
-      </c>
-      <c r="H95" t="s">
-        <v>56</v>
-      </c>
-      <c r="I95" t="s">
-        <v>57</v>
-      </c>
-      <c r="J95" t="s">
-        <v>58</v>
-      </c>
-      <c r="K95" t="s">
-        <v>610</v>
-      </c>
-      <c r="L95" t="s">
-        <v>151</v>
-      </c>
-      <c r="M95" t="s">
-        <v>611</v>
-      </c>
-      <c r="N95" t="s">
-        <v>82</v>
-      </c>
-      <c r="O95" t="s">
-        <v>612</v>
-      </c>
-      <c r="P95" t="s">
-        <v>128</v>
+      <c r="B96" t="s">
+        <v>50</v>
+      </c>
+      <c r="C96" t="s">
+        <v>51</v>
+      </c>
+      <c r="D96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E96" t="s">
+        <v>616</v>
+      </c>
+      <c r="F96" t="s">
+        <v>617</v>
+      </c>
+      <c r="G96" t="s">
+        <v>52</v>
+      </c>
+      <c r="H96" t="s">
+        <v>56</v>
+      </c>
+      <c r="I96" t="s">
+        <v>57</v>
+      </c>
+      <c r="J96" t="s">
+        <v>58</v>
+      </c>
+      <c r="K96" t="s">
+        <v>618</v>
+      </c>
+      <c r="L96" t="s">
+        <v>189</v>
+      </c>
+      <c r="M96" t="s">
+        <v>619</v>
+      </c>
+      <c r="N96" t="s">
+        <v>84</v>
+      </c>
+      <c r="O96" t="s">
+        <v>620</v>
+      </c>
+      <c r="P96" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>50</v>
+      </c>
+      <c r="C97" t="s">
+        <v>51</v>
+      </c>
+      <c r="D97" t="s">
+        <v>52</v>
+      </c>
+      <c r="E97" t="s">
+        <v>621</v>
+      </c>
+      <c r="F97" t="s">
+        <v>622</v>
+      </c>
+      <c r="G97" t="s">
+        <v>58</v>
+      </c>
+      <c r="H97" t="s">
+        <v>56</v>
+      </c>
+      <c r="I97" t="s">
+        <v>57</v>
+      </c>
+      <c r="J97" t="s">
+        <v>58</v>
+      </c>
+      <c r="K97" t="s">
+        <v>623</v>
+      </c>
+      <c r="L97" t="s">
+        <v>107</v>
+      </c>
+      <c r="M97" t="s">
+        <v>624</v>
+      </c>
+      <c r="N97" t="s">
+        <v>84</v>
+      </c>
+      <c r="O97" t="s">
+        <v>625</v>
+      </c>
+      <c r="P97" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>626</v>
+      </c>
+      <c r="R97" t="s">
+        <v>251</v>
+      </c>
+      <c r="S97" t="s">
+        <v>627</v>
+      </c>
+      <c r="T97" t="s">
+        <v>60</v>
+      </c>
+      <c r="U97" t="s">
+        <v>628</v>
+      </c>
+      <c r="V97" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
